--- a/inst/Language.xlsx
+++ b/inst/Language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyvbl\Dropbox\Forensic\MixtureProj\myDev\casesolver\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2F3781-8F5F-4A7B-AE17-E33CA2E0799D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0CE10E-F349-4278-9C19-A5CD21AE9D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -3553,9 +3553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C260" sqref="C260"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/inst/Language.xlsx
+++ b/inst/Language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyvbl\Dropbox\Forensic\MixtureProj\myDev\casesolver\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0CE10E-F349-4278-9C19-A5CD21AE9D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE1D886-6B8F-43C0-B8E2-710E69233927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="2055" windowWidth="25575" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="1002">
   <si>
     <t>Key</t>
   </si>
@@ -1112,2035 +1112,1936 @@
     <t>Sample Name</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>Ukjent</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>showfor</t>
+  </si>
+  <si>
+    <t>Show for</t>
+  </si>
+  <si>
+    <t>Vis for</t>
+  </si>
+  <si>
+    <t>donttruncate</t>
+  </si>
+  <si>
+    <t>Don't truncate</t>
+  </si>
+  <si>
+    <t>Ikke trunker</t>
+  </si>
+  <si>
+    <t>macthreshold</t>
+  </si>
+  <si>
+    <t>qualLRthreshold</t>
+  </si>
+  <si>
+    <t>quanLRthreshold</t>
+  </si>
+  <si>
+    <t>Allele-sammenligningsterskel</t>
+  </si>
+  <si>
+    <t>Importer</t>
+  </si>
+  <si>
+    <t>MAC threshold (comparison)</t>
+  </si>
+  <si>
+    <t>Quan. LR threshold (comparison)</t>
+  </si>
+  <si>
+    <t>Qual. LR threshold (comparison)</t>
+  </si>
+  <si>
+    <t>Kvalitativ LR-terskel (sammenligning)</t>
+  </si>
+  <si>
+    <t>Kvantitativ LR-terskel (sammenligning)</t>
+  </si>
+  <si>
+    <t>Minimum loci for being SS match (Import)</t>
+  </si>
+  <si>
+    <t>Minimum IBS for being relative candidate (IBS)</t>
+  </si>
+  <si>
+    <t>Prob-ratio to next (Deconvolution)</t>
+  </si>
+  <si>
+    <t>Prob. single allele (Deconvolution)</t>
+  </si>
+  <si>
+    <t>minLocSSmatch</t>
+  </si>
+  <si>
+    <t>minIBSrelative</t>
+  </si>
+  <si>
+    <t>probRatioToNext</t>
+  </si>
+  <si>
+    <t>probSingleAllele</t>
+  </si>
+  <si>
+    <t>Minste markørantall for å treffe ren profil (importering)</t>
+  </si>
+  <si>
+    <t>Minste alleleoverlapp for å være slekning (IBS)</t>
+  </si>
+  <si>
+    <t>Terskelkrav for dekonvolusjon (genotyper)</t>
+  </si>
+  <si>
+    <t>Terskelkrav for dekonvolusjon (alleler)</t>
+  </si>
+  <si>
+    <t>path with CASE folders</t>
+  </si>
+  <si>
+    <t>pathcasefolders</t>
+  </si>
+  <si>
+    <t>sti til saksmappene</t>
+  </si>
+  <si>
+    <t>Konsensusprofiler</t>
+  </si>
+  <si>
+    <t>consensusprofiles</t>
+  </si>
+  <si>
+    <t>Consensus profiles</t>
+  </si>
+  <si>
+    <t>matchnetwork</t>
+  </si>
+  <si>
+    <t>Treffnettverk</t>
+  </si>
+  <si>
+    <t>Match Network</t>
+  </si>
+  <si>
+    <t>Andre opplysninger</t>
+  </si>
+  <si>
+    <t>Forventet høydefigur</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Ingen</t>
+  </si>
+  <si>
+    <t>Ikke utført</t>
+  </si>
+  <si>
+    <t>notcompleted</t>
+  </si>
+  <si>
+    <t>Not completed</t>
+  </si>
+  <si>
+    <t>No candidates</t>
+  </si>
+  <si>
+    <t>nocandidates</t>
+  </si>
+  <si>
+    <t>Ingen kandidater</t>
+  </si>
+  <si>
+    <t>Treffstatus</t>
+  </si>
+  <si>
+    <t>Match Status</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>versjon</t>
+  </si>
+  <si>
+    <t>Lag</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t>Tilleggsopplysninger</t>
+  </si>
+  <si>
+    <t>threshs</t>
+  </si>
+  <si>
+    <t>Thresholds</t>
+  </si>
+  <si>
+    <t>Terskler</t>
+  </si>
+  <si>
+    <t>randommatchprob</t>
+  </si>
+  <si>
+    <t>Random match probabilities</t>
+  </si>
+  <si>
+    <t>Sannsynligheter for tilfeldig treff</t>
+  </si>
+  <si>
+    <t>comparisons</t>
+  </si>
+  <si>
+    <t>Comparisons</t>
+  </si>
+  <si>
+    <t>Sammenligninger</t>
+  </si>
+  <si>
+    <t>Laget</t>
+  </si>
+  <si>
+    <t>Saksnr</t>
+  </si>
+  <si>
+    <t>concordantevidences</t>
+  </si>
+  <si>
+    <t>Concordance of crime scene profiles</t>
+  </si>
+  <si>
+    <t>Elektropherogram</t>
+  </si>
+  <si>
+    <t>removeselected</t>
+  </si>
+  <si>
+    <t>Fjern valgt</t>
+  </si>
+  <si>
+    <t>Remove selected</t>
+  </si>
+  <si>
+    <t>AMEL</t>
+  </si>
+  <si>
+    <t>Amelogenin</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>Legg til</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>PÅ</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Begge</t>
+  </si>
+  <si>
+    <t>qualmodel</t>
+  </si>
+  <si>
+    <t>Qualitative (LRmix)</t>
+  </si>
+  <si>
+    <t>quanmodel</t>
+  </si>
+  <si>
+    <t>Quantitative (EuroForMix)</t>
+  </si>
+  <si>
+    <t>Model type(s)</t>
+  </si>
+  <si>
+    <t>Dropin probability</t>
+  </si>
+  <si>
+    <t>Dropin peak height Lambda (EFM)</t>
+  </si>
+  <si>
+    <t>Degradation model (EFM)</t>
+  </si>
+  <si>
+    <t>Stutter model (EFM)</t>
+  </si>
+  <si>
+    <t>modeltypes</t>
+  </si>
+  <si>
+    <t>dropinpeakheightlambda</t>
+  </si>
+  <si>
+    <t>degradationmodel</t>
+  </si>
+  <si>
+    <t>stuttermodel</t>
+  </si>
+  <si>
+    <t>Analytical threshold (AT)</t>
+  </si>
+  <si>
+    <t>analyticalthreshold</t>
+  </si>
+  <si>
+    <t>dropinprob</t>
+  </si>
+  <si>
+    <t>Modeltyper</t>
+  </si>
+  <si>
+    <t>Analytisk grense (AT)</t>
+  </si>
+  <si>
+    <t>Dropinsannsynlighet</t>
+  </si>
+  <si>
+    <t>Dropinhøydesannsynlighet (EFM)</t>
+  </si>
+  <si>
+    <t>Degraderingsmodell (EFM)</t>
+  </si>
+  <si>
+    <t>Stuttermodell (EFM)</t>
+  </si>
+  <si>
+    <t>Spor-Spor sammenligning</t>
+  </si>
+  <si>
+    <t>concordantreferences</t>
+  </si>
+  <si>
+    <t>Concordance of reference profiles (IBS)</t>
+  </si>
+  <si>
+    <t>Referanse-mot-referanse sammenligning (IBS)</t>
+  </si>
+  <si>
+    <t>msg.nocandidates</t>
+  </si>
+  <si>
+    <t>No candidates found</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>msg.calculationconfirmwarning</t>
+  </si>
+  <si>
+    <t>Er du sikker på at du vil kjøre beregningene? Mye minne kreves ved mange markører!</t>
+  </si>
+  <si>
+    <t>Ingen kandidater ble funnet</t>
+  </si>
+  <si>
+    <t>Reference name already taken. Please consider a new name!</t>
+  </si>
+  <si>
+    <t>msg.refnametaken</t>
+  </si>
+  <si>
+    <t>Are you sure you want to apply the changes in</t>
+  </si>
+  <si>
+    <t>msg.sureapplychanges</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete</t>
+  </si>
+  <si>
+    <t>msg.suredelete</t>
+  </si>
+  <si>
+    <t>Define index of reference profiles to show (use comma, AND/OR minus-)</t>
+  </si>
+  <si>
+    <t>msg.indexinput</t>
+  </si>
+  <si>
+    <t>msg.selectoneprofile</t>
+  </si>
+  <si>
+    <t>Vennligst velg kun én profil for å fortsette</t>
+  </si>
+  <si>
+    <t>Vennligst velg minst en profil for å fortsette</t>
+  </si>
+  <si>
+    <t>Please select only one profile to continue</t>
+  </si>
+  <si>
+    <t>Please select at least one profile to continue</t>
+  </si>
+  <si>
+    <t>Do you want to add the following deconvoluted profile to the references?</t>
+  </si>
+  <si>
+    <t>msg.addDCprofile</t>
+  </si>
+  <si>
+    <t>Condition on</t>
+  </si>
+  <si>
+    <t>condtionON</t>
+  </si>
+  <si>
+    <t>log10 LR</t>
+  </si>
+  <si>
+    <t>Person of interest (POI)</t>
+  </si>
+  <si>
+    <t>msg.morecontrwarning</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>The calculated LR was</t>
+  </si>
+  <si>
+    <t>msg.calculatedLR</t>
+  </si>
+  <si>
+    <t>Do you want to use the result?</t>
+  </si>
+  <si>
+    <t>msg.useresult</t>
+  </si>
+  <si>
+    <t>condRef</t>
+  </si>
+  <si>
+    <t>condref</t>
+  </si>
+  <si>
+    <t>CondRef</t>
+  </si>
+  <si>
+    <t>concordance</t>
+  </si>
+  <si>
+    <t>Concordance</t>
+  </si>
+  <si>
+    <t>msg.largesampleerror</t>
+  </si>
+  <si>
+    <t>fileexport</t>
+  </si>
+  <si>
+    <t>File export</t>
+  </si>
+  <si>
+    <t>Fileksportering</t>
+  </si>
+  <si>
+    <t>Referansenavnet var alt tatt. Vennligst velg et nytt navn!</t>
+  </si>
+  <si>
+    <t>Er du sikker på at du vil gjøre forandringer i</t>
+  </si>
+  <si>
+    <t>Er du sikker på at du vil fjerne</t>
+  </si>
+  <si>
+    <t>Definer indekser til profiler som du vil vise (bruk komma, OG/eller minus-)</t>
+  </si>
+  <si>
+    <t>Vil du legge til følgende dekonvolverte profil til referanser?</t>
+  </si>
+  <si>
+    <t>Merk: Du har valg flere bidragsytere enn det som er gitt i</t>
+  </si>
+  <si>
+    <t>Notice: You have selected more contributors than given in</t>
+  </si>
+  <si>
+    <t>Den beregnede LR verdien var</t>
+  </si>
+  <si>
+    <t>Vil du bruke resultatet</t>
+  </si>
+  <si>
+    <t>Antall sampler var for høyt. Vennligst øk minnet for å fortsette</t>
+  </si>
+  <si>
+    <t>The number of samples was too large. Please increase the memory in order to proceed</t>
+  </si>
+  <si>
+    <t>Advarsel</t>
+  </si>
+  <si>
+    <t>Beting på</t>
+  </si>
+  <si>
+    <t>Person av interesse (POI)</t>
+  </si>
+  <si>
+    <t>Maximum contributors in QualLR (LRmix)</t>
+  </si>
+  <si>
+    <t>maxcontrqual</t>
+  </si>
+  <si>
+    <t>Maximum contributors in QuanLR (EFM)</t>
+  </si>
+  <si>
+    <t>maxcontrquan</t>
+  </si>
+  <si>
+    <t>Number of required optimizes (EFM)</t>
+  </si>
+  <si>
+    <t>numoptim</t>
+  </si>
+  <si>
+    <t>Start with one contributor when estimating contrs</t>
+  </si>
+  <si>
+    <t>useoneaslowestnoc</t>
+  </si>
+  <si>
+    <t>useSNPmodule</t>
+  </si>
+  <si>
+    <t>Antall optimaliseringer (EFM)</t>
+  </si>
+  <si>
+    <t>Bruk SNP modul (alltid 3 bidragsytere)</t>
+  </si>
+  <si>
+    <t>Use SNP module (always 3 contributors)</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Diseño del informe</t>
+  </si>
+  <si>
+    <t>Abrir en</t>
+  </si>
+  <si>
+    <t>Directorio de trabajo</t>
+  </si>
+  <si>
+    <t>Carpeta del caso</t>
+  </si>
+  <si>
+    <t>rutaCarpetasCaso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerrar programa </t>
+  </si>
+  <si>
+    <t>Umbrales</t>
+  </si>
+  <si>
+    <t>Matriz de Matches</t>
+  </si>
+  <si>
+    <t>Lista de Matches</t>
+  </si>
+  <si>
+    <t>Status de Matches</t>
+  </si>
+  <si>
+    <t>Gráfico de Matches</t>
+  </si>
+  <si>
+    <t>Exportar archivo</t>
+  </si>
+  <si>
+    <t>Separar perfiles</t>
+  </si>
+  <si>
+    <t>Perfiles Separados</t>
+  </si>
+  <si>
+    <t>Separación de perfiles</t>
+  </si>
+  <si>
+    <t>creado</t>
+  </si>
+  <si>
+    <t>Frecuencias poblacionales (popfrec)</t>
+  </si>
+  <si>
+    <t>Perfiles consenso</t>
+  </si>
+  <si>
+    <t>Amel (amelogenina)</t>
+  </si>
+  <si>
+    <t>PDI (persona de interés)</t>
+  </si>
+  <si>
+    <t>Número de muestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concordancia  </t>
+  </si>
+  <si>
+    <t>Evidencias Concordantes</t>
+  </si>
+  <si>
+    <t>Referencias Concordantes (IBS)</t>
+  </si>
+  <si>
+    <t>vacío</t>
+  </si>
+  <si>
+    <t>versión</t>
+  </si>
+  <si>
+    <t>adjuntos</t>
+  </si>
+  <si>
+    <t>No completado</t>
+  </si>
+  <si>
+    <t>Sin candidatos</t>
+  </si>
+  <si>
+    <t>condicionar a</t>
+  </si>
+  <si>
+    <t>condicionar a referencia</t>
+  </si>
+  <si>
+    <t>Advertencia</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Entrada del usuario</t>
+  </si>
+  <si>
+    <t>Nombrar archivo del informe</t>
+  </si>
+  <si>
+    <t>Informe del caso</t>
+  </si>
+  <si>
+    <t>Umbral de match</t>
+  </si>
+  <si>
+    <t>Umbral LR Cual.</t>
+  </si>
+  <si>
+    <t>Umbral LR Cuan.</t>
+  </si>
+  <si>
+    <t>minLocIndivMatch (Loci mínimos para matches de perfiles individuales)</t>
+  </si>
+  <si>
+    <t>minIBSparentesco (IBS mínimo para parentesco)</t>
+  </si>
+  <si>
+    <t>Prob-ratio al siguiente (separación de perfiles)</t>
+  </si>
+  <si>
+    <t>Prob. Alelo (separación de perfiles)</t>
+  </si>
+  <si>
+    <t>ambos</t>
+  </si>
+  <si>
+    <t>Cualitativo (LRmix)</t>
+  </si>
+  <si>
+    <t>Cuantitativo (EuroForMix)</t>
+  </si>
+  <si>
+    <t>Tipo(s) de modelo</t>
+  </si>
+  <si>
+    <t>Umbral analítico (AT)</t>
+  </si>
+  <si>
+    <t>Probabilidad de Drop-in</t>
+  </si>
+  <si>
+    <t>Número de optimizaciones requeridas (EFM)</t>
+  </si>
+  <si>
+    <t>Empezar con un contribuyente cuando se estimen los contribuyentes</t>
+  </si>
+  <si>
+    <t>Usar módulo SNP (siempre 3 contribuyentes)</t>
+  </si>
+  <si>
+    <t>Quiere guardar el proyecto?</t>
+  </si>
+  <si>
+    <t>Está seguro de que quiere salir?</t>
+  </si>
+  <si>
+    <t>No se han encontrado candidatos</t>
+  </si>
+  <si>
+    <t>Nombre de muestra de referencia ya utilizado. Por favor, utilice otro nombre!</t>
+  </si>
+  <si>
+    <t>Está seguro de que quiere aplicar los cambios en</t>
+  </si>
+  <si>
+    <t>Está seguro de que quiere borrar</t>
+  </si>
+  <si>
+    <t>Quiere añadir a la lista de referencias los siguientes perfiles separados?</t>
+  </si>
+  <si>
+    <t>El LR calculado es</t>
+  </si>
+  <si>
+    <t>Quiere utlizar los resultados?</t>
+  </si>
+  <si>
+    <t>El número de muestras es demasiado elevado. Por favor, aumente la memoria de su ordenador para proceder</t>
+  </si>
+  <si>
+    <t>logLR</t>
+  </si>
+  <si>
+    <t>Are you sure you want to run the calculations? This may take very much time and memory when having many markers!</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>finalmatchlist</t>
+  </si>
+  <si>
+    <t>Final Match List</t>
+  </si>
+  <si>
+    <t>Endelig Matchlist</t>
+  </si>
+  <si>
+    <t>Lista de Matches final</t>
+  </si>
+  <si>
+    <t>deconvolvemixtures</t>
+  </si>
+  <si>
+    <t>Deconvolve all</t>
+  </si>
+  <si>
+    <t>Dekonvolver alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separar todas las mezclas </t>
+  </si>
+  <si>
+    <t>Ord. evids por</t>
+  </si>
+  <si>
+    <t>Ord. refs por</t>
+  </si>
+  <si>
+    <t>Ord. por</t>
+  </si>
+  <si>
+    <t>Definir</t>
+  </si>
+  <si>
+    <t>Modelos</t>
+  </si>
+  <si>
+    <t>ImportData function (script para importar datos)</t>
+  </si>
+  <si>
+    <t>Incluir</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>Modelar degradación (EFM)</t>
+  </si>
+  <si>
+    <t>Modelar Stutter (EFM)</t>
+  </si>
+  <si>
+    <t>Máximo num. contribuyentes en CualLR (LRmix)</t>
+  </si>
+  <si>
+    <t>Máximo num. contribuyentes en CuanLR (EFM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por favor, seleccione un archivo de frecuencias poblacionales válido. Vaya a </t>
+  </si>
+  <si>
+    <t>Por favor, especifique un kit para poder realizar las comparaciones. Vaya a Preparar-&gt;Seleccionar kit</t>
+  </si>
+  <si>
+    <t>Por favor, seleccione al menos un perfil para continuar</t>
+  </si>
+  <si>
+    <t>Por favor, seleccione sólo un perfil para continuar</t>
+  </si>
+  <si>
+    <t>Está seguro de que desea eliminar los siguientes perfiles?:</t>
+  </si>
+  <si>
+    <t>Está seguro de que quiere realizar los cálculos? Con tantos marcadores, esto tardará mucho y utilizará mucha menoria</t>
+  </si>
+  <si>
+    <t>Defina el índice de perfiles de referencia a mostrar (use coma Y/O símbolo guión medio -)</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>Show single sources in Matches</t>
+  </si>
+  <si>
+    <t>Vis rene profiler i Treffliste</t>
+  </si>
+  <si>
+    <t>rotatematrix</t>
+  </si>
+  <si>
+    <t>sort.column</t>
+  </si>
+  <si>
+    <t>sort.row</t>
+  </si>
+  <si>
+    <t>Column name</t>
+  </si>
+  <si>
+    <t>Row name</t>
+  </si>
+  <si>
+    <t>Kolonnenavn</t>
+  </si>
+  <si>
+    <t>Radnavn</t>
+  </si>
+  <si>
+    <t>nombre de columna</t>
+  </si>
+  <si>
+    <t>nombre de fila</t>
+  </si>
+  <si>
+    <t>showssinmatchlist</t>
+  </si>
+  <si>
+    <t>profileselector</t>
+  </si>
+  <si>
+    <t>Profile selector (import/report)</t>
+  </si>
+  <si>
+    <t>Velg profiler (import/rapport)</t>
+  </si>
+  <si>
+    <t>msg.nodata</t>
+  </si>
+  <si>
+    <t>No data was found when importing</t>
+  </si>
+  <si>
+    <t>Ingen data ble funnet ved importering</t>
+  </si>
+  <si>
+    <t>Rotate MatchMatrix</t>
+  </si>
+  <si>
+    <t>Roter tabell</t>
+  </si>
+  <si>
+    <t>Rotar Matriz</t>
+  </si>
+  <si>
+    <t>Match degree</t>
+  </si>
+  <si>
+    <t>sort.matchval</t>
+  </si>
+  <si>
+    <t>Evidence</t>
+  </si>
+  <si>
+    <t>Evidence(s)</t>
+  </si>
+  <si>
+    <t>Ref-Ref</t>
+  </si>
+  <si>
+    <t>Start est. NOC med 1</t>
+  </si>
+  <si>
+    <t>MixProp</t>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>woeResult</t>
+  </si>
+  <si>
+    <t>Weight of evidence results</t>
+  </si>
+  <si>
+    <t>Bevisvekting</t>
+  </si>
+  <si>
+    <t>Bl.forhold.</t>
+  </si>
+  <si>
+    <t>extractedprofiles</t>
+  </si>
+  <si>
+    <t>Extracted profiles</t>
+  </si>
+  <si>
+    <t>Ekstraherte profiler</t>
+  </si>
+  <si>
+    <t>Fst/Theta correction (WoE)</t>
+  </si>
+  <si>
+    <t>fstsetting</t>
+  </si>
+  <si>
+    <t>BWstuttermodel</t>
+  </si>
+  <si>
+    <t>BW stutter model (EFM)</t>
+  </si>
+  <si>
+    <t>Modelar BW Stutter (EFM)</t>
+  </si>
+  <si>
+    <t>FWstuttermodel</t>
+  </si>
+  <si>
+    <t>FW stutter model (EFM)</t>
+  </si>
+  <si>
+    <t>Modelar FW Stutter (EFM)</t>
+  </si>
+  <si>
+    <t>mcmc</t>
+  </si>
+  <si>
+    <t>MCMC</t>
+  </si>
+  <si>
+    <t>niter</t>
+  </si>
+  <si>
+    <t>Number of iterations</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>Default sampler variation</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>quantile</t>
+  </si>
+  <si>
+    <t>Conservative LR quantile</t>
+  </si>
+  <si>
+    <t>Sampler seed</t>
+  </si>
+  <si>
+    <t>preview</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>lrpermarker</t>
+  </si>
+  <si>
+    <t>setpermarker</t>
+  </si>
+  <si>
+    <t>Set per marker</t>
+  </si>
+  <si>
+    <t>Marker</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>Markers</t>
+  </si>
+  <si>
+    <t>Modelparameters</t>
+  </si>
+  <si>
+    <t>Model parameters</t>
+  </si>
+  <si>
+    <t>DCreporttext1</t>
+  </si>
+  <si>
+    <t>DCreporttext2</t>
+  </si>
+  <si>
+    <t>Predicted genotype (allele if below threshold)</t>
+  </si>
+  <si>
+    <t>The probability ratio between top ranked genotype and second ranked genotype</t>
+  </si>
+  <si>
+    <t>addasref</t>
+  </si>
+  <si>
+    <t>Add as Ref</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>numword_2</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <t>hundre</t>
+  </si>
+  <si>
+    <t>numword_3</t>
+  </si>
+  <si>
+    <t>thousand</t>
+  </si>
+  <si>
+    <t>tusen</t>
+  </si>
+  <si>
+    <t>numword_6</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>numword_9</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>milliard</t>
+  </si>
+  <si>
+    <t>numword_12</t>
+  </si>
+  <si>
+    <t>trillion</t>
+  </si>
+  <si>
+    <t>unknowns</t>
+  </si>
+  <si>
+    <t>Unknowns</t>
+  </si>
+  <si>
+    <t>Ukjente</t>
+  </si>
+  <si>
+    <t>Desconocidos</t>
+  </si>
+  <si>
+    <t>woeStatements</t>
+  </si>
+  <si>
+    <t>Verbal statements (WoE)</t>
+  </si>
+  <si>
+    <t>Verbal bevisvekting</t>
+  </si>
+  <si>
+    <t>LR-per marker (MLE)</t>
+  </si>
+  <si>
+    <t>LR-per markør (MLE)</t>
+  </si>
+  <si>
+    <t>woeParams</t>
+  </si>
+  <si>
+    <t>Model parameters (WOE)</t>
+  </si>
+  <si>
+    <t>statementScheme</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>og</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>WOEreporttext</t>
+  </si>
+  <si>
+    <t>Unknowns are assumed to be unrelated individuals from the selected population</t>
+  </si>
+  <si>
+    <t>Antall iterasjoner</t>
+  </si>
+  <si>
+    <t>Samplerfrø</t>
+  </si>
+  <si>
+    <t>Velg per markør</t>
+  </si>
+  <si>
+    <t>Markør</t>
+  </si>
+  <si>
+    <t>Markører</t>
+  </si>
+  <si>
+    <t>Modellparametre</t>
+  </si>
+  <si>
+    <t>Forhåndsvis</t>
+  </si>
+  <si>
+    <t>Legg til som ref.</t>
+  </si>
+  <si>
+    <t>Ukjente individer er antatt ubeslektede fra valgt populasjon</t>
+  </si>
+  <si>
+    <t>Hypotesesett</t>
+  </si>
+  <si>
+    <t>Hypothesis set</t>
+  </si>
+  <si>
+    <t>hypothesisset</t>
+  </si>
+  <si>
+    <t>numwordPlural</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>The evidence ($evidtxt) is $LRtxt times more likely if the DNA came from $hptxt than if it came from $hdtxt</t>
+  </si>
+  <si>
+    <t>Sporet ($evidtxt) er $LRtxt ganger mer sannsynlig hvis DNA-et kommer fra $hptxt enn hvis det kom fra $hdtxt</t>
+  </si>
+  <si>
+    <t>LRmle</t>
+  </si>
+  <si>
+    <t>LRcons</t>
+  </si>
+  <si>
+    <t>LRbayes</t>
+  </si>
+  <si>
+    <t>MxPOI</t>
+  </si>
+  <si>
+    <t>Betingede</t>
+  </si>
+  <si>
+    <t>Conditionals</t>
+  </si>
+  <si>
+    <t>Conditional(s)</t>
+  </si>
+  <si>
+    <t>nFailed</t>
+  </si>
+  <si>
+    <t>Ant. Feilet (Hp/Hd)</t>
+  </si>
+  <si>
+    <t>Num. Failed (Hp/Hd)</t>
+  </si>
+  <si>
+    <t>Ninguno</t>
+  </si>
+  <si>
+    <t>Foreslått profil (kun allele hvis under terskel)</t>
+  </si>
+  <si>
+    <t>Sannsynlighet av mest sannsynlig profil delt på sannsynligheten av nest-mest sannsynlig profil</t>
+  </si>
+  <si>
+    <t>similarity</t>
+  </si>
+  <si>
+    <t>Similarity</t>
+  </si>
+  <si>
+    <t>Likhet</t>
+  </si>
+  <si>
+    <t>AMEL included</t>
+  </si>
+  <si>
+    <t>Normalized</t>
+  </si>
+  <si>
+    <t>AMELincluded</t>
+  </si>
+  <si>
+    <t>minFreq</t>
+  </si>
+  <si>
+    <t>Minimum frequency</t>
+  </si>
+  <si>
+    <t>woeperform</t>
+  </si>
+  <si>
+    <t>Perform WOE</t>
+  </si>
+  <si>
+    <t>tip.data.changeview</t>
+  </si>
+  <si>
+    <t>tip.data.import</t>
+  </si>
+  <si>
+    <t>tip.data.importref</t>
+  </si>
+  <si>
+    <t>tip.data.compare</t>
+  </si>
+  <si>
+    <t>tip.data.createreport</t>
+  </si>
+  <si>
+    <t>tip.data.selectprofiles</t>
+  </si>
+  <si>
+    <t>tip.data.rmp</t>
+  </si>
+  <si>
+    <t>tip.data.ibs</t>
+  </si>
+  <si>
+    <t>tip.data.conc</t>
+  </si>
+  <si>
+    <t>tip.data.editref</t>
+  </si>
+  <si>
+    <t>tip.data.restart</t>
+  </si>
+  <si>
+    <t>tip.matchmatrix.truncate</t>
+  </si>
+  <si>
+    <t>tip.matchlistQual.calc</t>
+  </si>
+  <si>
+    <t>tip.matches.woe</t>
+  </si>
+  <si>
+    <t>tip.matches.dcall</t>
+  </si>
+  <si>
+    <t>tip.export</t>
+  </si>
+  <si>
+    <t>Export table to a textfile</t>
+  </si>
+  <si>
+    <t>tip.dc.exportsel</t>
+  </si>
+  <si>
+    <t>tip.dc.delete</t>
+  </si>
+  <si>
+    <t>tip.dc.showprobs</t>
+  </si>
+  <si>
+    <t>tip.dc.addasref</t>
+  </si>
+  <si>
+    <t>tip.woe.lrpermarker</t>
+  </si>
+  <si>
+    <t>tip.woe.paramest</t>
+  </si>
+  <si>
+    <t>tip.woe.modelvalid</t>
+  </si>
+  <si>
+    <t>tip.woe.fittedPH</t>
+  </si>
+  <si>
+    <t>tip.woe.statement</t>
+  </si>
+  <si>
+    <t>Import data from selected case. Alternatively it is also possible to edit name of case and press ENTER.</t>
+  </si>
+  <si>
+    <t>Import additional reference(s) to session by selecting a textfile (requires EFM/LRmix format)</t>
+  </si>
+  <si>
+    <t>Create a report with results conducted in the session. Modify report in Report settings. Different report formats are supported.</t>
+  </si>
+  <si>
+    <t>Conduct further analysis with selected (highlighted) profiles (evid/refs): Show, delete, export or perform deconvolution</t>
+  </si>
+  <si>
+    <t>The number of shared alleles between all evidences are calculated (concordance). Only pairs which obtains a value above specified MAC threshold are shown.</t>
+  </si>
+  <si>
+    <t>The number of shared alleles between all references are calculated (Identical By State). Only pairs which obtains a value above specified IBS threshold are shown.</t>
+  </si>
+  <si>
+    <t>Edit name or alleles of any of the references. Also possible to add new references.</t>
+  </si>
+  <si>
+    <t>Restart program session (all panels are cleared).</t>
+  </si>
+  <si>
+    <t>Truncate cells which has a value below the specified MAC threshold.</t>
+  </si>
+  <si>
+    <t>Calculate the quantitative based LR for all candidates being above the QualLR threshold</t>
+  </si>
+  <si>
+    <t>Define and perform weight of evidence calculations based on user-defined hypotheses. The LR values may also take into account theta/Fst-correction.</t>
+  </si>
+  <si>
+    <t>Performing deconvolution of all evidence profiles in the matchlist having at least one unknown. The deconvolution will condition on the matchcandidates.</t>
+  </si>
+  <si>
+    <t>Export selected profile to a EFM/LRmix supported textfile.</t>
+  </si>
+  <si>
+    <t>Delete row in table</t>
+  </si>
+  <si>
+    <t>Show the ratioToNext='probability of top ranked candidate divided by the probability of the second ranked candidate', where candidates are whole genotypes. Single alleles may be extracted if below specified DC genotype-setting but above allele-setting.</t>
+  </si>
+  <si>
+    <t>Move selected profile (row) to the reference table in the data panel. The user may change the name (followed by ENTER).</t>
+  </si>
+  <si>
+    <t>Show LR per marker (based on MLE calculations)</t>
+  </si>
+  <si>
+    <t>Show and edit statement for selected hypothesis set. It is possible to edit the statement here before creating report.</t>
+  </si>
+  <si>
+    <t>Triggers the comparisons between Mixtures (and evidence(s) with emtpy MatchStatus) and references. This is an investigatory comparison search where match-candidates are obtained based on thresholds (see threshold settings). The results are shown in the next panels, and the final candidate list is shown under Matches</t>
+  </si>
+  <si>
+    <t>Sampler-variasjon</t>
+  </si>
+  <si>
+    <t>Minimum allelefrekvens</t>
+  </si>
+  <si>
+    <t>Minimum allele frequency</t>
+  </si>
+  <si>
+    <t>Mezclas</t>
+  </si>
+  <si>
+    <t>Navngi rapportfil</t>
+  </si>
+  <si>
+    <t>Normalisert</t>
+  </si>
+  <si>
+    <t>Kvantitativ (EuroForMix)</t>
+  </si>
+  <si>
+    <t>Konservativ LR-kvantil</t>
+  </si>
+  <si>
+    <t>Rangering</t>
+  </si>
+  <si>
+    <t>Treffgrad</t>
+  </si>
+  <si>
+    <t>utsagn</t>
+  </si>
+  <si>
+    <t>m/høyde</t>
+  </si>
+  <si>
+    <t>Utfør bevisvekting</t>
+  </si>
+  <si>
+    <t>Model parameters (bevisvekting)</t>
+  </si>
+  <si>
+    <t>Fst/Theta korreksjon (bevisvekting)</t>
+  </si>
+  <si>
+    <t>Endre tabell-utforming av bevis vs referanser</t>
+  </si>
+  <si>
+    <t>Importer data fra valgt sak</t>
+  </si>
+  <si>
+    <t>Importer tilleggsreferanser</t>
+  </si>
+  <si>
+    <t>Utfører sammenligning mellom blandinger og referanser</t>
+  </si>
+  <si>
+    <t>Lag rapport</t>
+  </si>
+  <si>
+    <t>Utfør andre funksjoner på valgte profiler</t>
+  </si>
+  <si>
+    <t>Calculate random man not excluded (RMNE) and random match probability (RMP) of reference profiles</t>
+  </si>
+  <si>
+    <t>Beregn profilsannsynligheter</t>
+  </si>
+  <si>
+    <t>Beregner antall delte alleler mellom alle referanser</t>
+  </si>
+  <si>
+    <t>Antall delte alleler mellom spor</t>
+  </si>
+  <si>
+    <t>Endre navn til referanser</t>
+  </si>
+  <si>
+    <t>Restart</t>
+  </si>
+  <si>
+    <t>Trunker celler som har verdi lavere enn spessifisert MAC terskel</t>
+  </si>
+  <si>
+    <t>Beregn kvantiative LR basert på alle kandidater over kval.LR-terskel</t>
+  </si>
+  <si>
+    <t>Definer and utfør bevisvekt for bruker-definerte hypoteser. Modellen benytter seg av definert theta/Fst-korreksjon.</t>
+  </si>
+  <si>
+    <t>Utfører dekonvolusjon av alle sporprofiler i treff-kandidatlisten som har minst én ukjent. Dekonvolusjonen vil betinge på alle treffkandidater.</t>
+  </si>
+  <si>
+    <t>Eksporter valgte profiler til EFM/LRmix teksfilformat.</t>
+  </si>
+  <si>
+    <t>Resultater fra bevisvekting</t>
+  </si>
+  <si>
+    <t>woe</t>
+  </si>
+  <si>
+    <t>Weight-of-evidence</t>
+  </si>
+  <si>
+    <t>rarealleles</t>
+  </si>
+  <si>
+    <t>Rare alleles</t>
+  </si>
+  <si>
+    <t>Sjeldne alleler</t>
+  </si>
+  <si>
+    <t>normalizeimpute</t>
+  </si>
+  <si>
+    <t>Normalize after imputing</t>
+  </si>
+  <si>
+    <t>Normaliser frekvenser</t>
+  </si>
+  <si>
+    <t>Change table layout for evidence versus references (horizontal or vertical).</t>
+  </si>
+  <si>
+    <t>restore</t>
+  </si>
+  <si>
+    <t>Restore</t>
+  </si>
+  <si>
+    <t>Gjenopprett</t>
+  </si>
+  <si>
+    <t>Markernames</t>
+  </si>
+  <si>
+    <t>Marker names</t>
+  </si>
+  <si>
+    <t>Markørnavn</t>
+  </si>
+  <si>
+    <t>Añadir como Ref.</t>
+  </si>
+  <si>
+    <t>Comparaciones</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
+  <si>
+    <t>Condicional(es)</t>
+  </si>
+  <si>
+    <t>Añadir/Editar refs.</t>
+  </si>
+  <si>
+    <t>Borrar de</t>
+  </si>
+  <si>
+    <t>No truncar</t>
+  </si>
+  <si>
+    <t>Lambda de altura de pico drop-in (EFM)</t>
+  </si>
+  <si>
+    <t>Gráfico de alturas alélicas esperadas</t>
+  </si>
+  <si>
+    <t>Corrección Fst/Theta (WoE)</t>
+  </si>
+  <si>
+    <t>Genotipo</t>
+  </si>
+  <si>
+    <t>Hipótesis</t>
+  </si>
+  <si>
+    <t>Marcador</t>
+  </si>
+  <si>
+    <t>Nombres de marcadores</t>
+  </si>
+  <si>
+    <t>Marcadores</t>
+  </si>
+  <si>
+    <t>Parámetros del modelo</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Num. Fallos (Hp/Hd)</t>
+  </si>
+  <si>
+    <t>Num. Iteraciones</t>
+  </si>
+  <si>
+    <t>Normalizar tras entrada</t>
+  </si>
+  <si>
+    <t>Normalizados</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Cuantil LR conservativo</t>
+  </si>
+  <si>
+    <t>Alelos raros</t>
+  </si>
+  <si>
+    <t>Rango</t>
+  </si>
+  <si>
+    <t>Eliminar seleccionados</t>
+  </si>
+  <si>
+    <t>Semilla del sampler</t>
+  </si>
+  <si>
+    <t>Establecer por marcador</t>
+  </si>
+  <si>
+    <t>Mostrar perfiles individuales en Matches final</t>
+  </si>
+  <si>
+    <t>conclusión</t>
+  </si>
+  <si>
+    <t>Truncar</t>
+  </si>
+  <si>
+    <t>Parámetros del modelo (WOE)</t>
+  </si>
+  <si>
+    <t>Ejecutar WOE</t>
+  </si>
+  <si>
+    <t>Resultados de WOE</t>
+  </si>
+  <si>
+    <t>Conclusiones (WoE)</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Genotipo inferido (alelo si bajo umbral)</t>
+  </si>
+  <si>
+    <t>Ratio de probabilidad entre el genotipo más probable y el segundo genotipo más probable</t>
+  </si>
+  <si>
+    <t>Se asume que los desconocidos son individuos no relacionados de la población seleccionada</t>
+  </si>
+  <si>
+    <t>El directorio de carpetas del caso elegido es incorrecto. El usuario puede haber seleccionado una carpeta que no contiene carpetas de casos.</t>
+  </si>
+  <si>
+    <t>El archivo que contiene la función para importar (importData function) no se ha seleccionado correctamente.</t>
+  </si>
+  <si>
+    <t>Aviso: ha seleccionado más contribuyentes que los que hay en</t>
+  </si>
+  <si>
+    <t>No se han encontrado datos para importar</t>
+  </si>
+  <si>
+    <t>Recuerde hacer click en REINICIAR antes de importar un caso nuevo!</t>
+  </si>
+  <si>
+    <t>Exportar tabla a archivo de texto</t>
+  </si>
+  <si>
+    <t>Cambiar diseño tabla a evidencias versus referencias (horizontal o vertical).</t>
+  </si>
+  <si>
+    <t>Importar datos del caso seleccionado. Alternativamente, también es posible editar el nombre del caso y hacer click en ENTER</t>
+  </si>
+  <si>
+    <t>Importar referecia(s) adicionales a la sesión seleccionando un archivo de texto (requiere formato EFM/LRmix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activar comparaciones entre mezclas (y evidencia/s con MatchStatus vacío) y referencias. Es una búsqueda que compara con el fin de investigar, en la que se obtienen candidatos basándose en umbrales (ver ajustes de umbrales). Los resultados se muestran en los paneles siguientes, y la lista final de candidatos se muestra en Matches. </t>
+  </si>
+  <si>
+    <t>Crear un informe con los resultados realizados en la sesión. Se puede modificar el informe en “Ajustes del Informe”. Se pueden crear informes de distintos formatos (html, doc,…).</t>
+  </si>
+  <si>
+    <t>Calcular la random match probability de los perfiles de referencia</t>
+  </si>
+  <si>
+    <t>Calcula el número de alelos compartidos entre todas las referencias (idéntico por estado, IBS). Sólo se muestran los pares que ofrecen un valor por encima del umbral IBS especificado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcula el número de alelos compartidos entre todas las evidencias (concordancia). Sólo se muestran los pares en los que se obtiene un valor por encima del umbral de MAC especificado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editar nombre o alelo de cualquiera de las referencias. También es posible añadir referencias nuevas. </t>
+  </si>
+  <si>
+    <t>Reiniciar la session (todos los paneles se borran)</t>
+  </si>
+  <si>
+    <t>Truncar las casillas que tienen un valor por debajo del umbral de MAC especificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcular el LR cuantitativo para todos los candidatos que estén por encima del umbral Qual.LR.  </t>
+  </si>
+  <si>
+    <t>Define y calcula el peso de la evidencia basado en las hipótesis definidas por el usuario. Los valores de LR también pueden tener en cuenta la corrección theta/Fst.</t>
+  </si>
+  <si>
+    <t>Separar todos los perfiles de evidencias de la matchlist que tengan al menos un perfil desconocido. La separación (deconvolution) se condicionará a los matches candidatos.</t>
+  </si>
+  <si>
+    <t>Exportar el perfil seleccionado a EFM/LRmix en formato txt.</t>
+  </si>
+  <si>
+    <t>Borrar fila en la tabla</t>
+  </si>
+  <si>
+    <t>Mostrar “ratioToNext”= probabilidad del candidato mejor clasificado dividido por la probabilidad del segundo candidato mejor clasificado, donde los candidatos son genotipos (no alelos). Se pueden extraer alelos si se encuentran por debajo del ajuste especificado para separar genotipos (DC-genotype) pero por encima del ajuste de alelo.</t>
+  </si>
+  <si>
+    <t>Mover el perfil seleccionado (la fila) a la tabla de referencias en la pestaña Datos. El usuario puede cambiar el nombre (pulsando ENTER a continuación).</t>
+  </si>
+  <si>
+    <t>Mostrar gráfica de validacion del modelo (tanto para Hp como para Hd)</t>
+  </si>
+  <si>
+    <t>Mostrar el modelo de altura de pico ajustado (bien para Hp). Los genotipos de contribuyentes desconocidos se tratan como el genotipo mejor clasificado (de la separación).</t>
+  </si>
+  <si>
+    <t>Mostrar y editar el texto del conjunto de hipótesis seleccionado. Es posible editar el texto aquí, antes de generar el informe.</t>
+  </si>
+  <si>
+    <t>cientos</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>millones</t>
+  </si>
+  <si>
+    <t>miles de millones</t>
+  </si>
+  <si>
+    <t>billones</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Kvalitativ (LRmix)</t>
+  </si>
+  <si>
+    <t>Vis ratioToNext='sannsynligheten for mest sannsynlige kandidat delt på sannsynlighenten for den med nest høyest sannsynlighet', der kandidatene er genotyper. Enkelte alleler kan allikevel trekkes ut dersom denne disse ligger over terskel for allele-sannsynlighet.</t>
+  </si>
+  <si>
+    <t>Show estimated parameters</t>
+  </si>
+  <si>
+    <t>Vis estimerte parametre</t>
+  </si>
+  <si>
+    <t>Mostrar parámetros estimados</t>
+  </si>
+  <si>
+    <t>Show model validation plots</t>
+  </si>
+  <si>
+    <t>Vis modellvalideringsplott</t>
+  </si>
+  <si>
+    <t>Vis tilpasset høydemodell (enten for Hp eller Hd). Genotypen for ukjente bidragsytere er basert på de mest sannsynlige genotype (fra dekonvolusjon).</t>
+  </si>
+  <si>
+    <t>Show fitted peak height model (either for Hp and Hd). For unknown contributors the genotypes are conducted as the top-ranked genotype (from deconvolution).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vis og endre verbalt utsagn for valgt hypotesesett. Det er mulig å endre teksten før rapport blir generert. </t>
+  </si>
+  <si>
+    <t>Vis LR per markør (basert på MLE beregninger)</t>
+  </si>
+  <si>
+    <t>Mostrar el LR por marcador (basado en calculos EFM)</t>
+  </si>
+  <si>
+    <t>Flytt valgt profil (rad) til referansetabellen I datapanelet. Brukeren kan endre navn (etterfulgt av ENTER).</t>
+  </si>
+  <si>
+    <t>Kvan.LR</t>
+  </si>
+  <si>
+    <t>Maks antall bidragsytere for kval(LRmix)</t>
+  </si>
+  <si>
+    <t>Maks antall bidragsytere for kvan(EFM)</t>
+  </si>
+  <si>
+    <t>BW stuttermodel (EFM)</t>
+  </si>
+  <si>
+    <t>Kval.LR</t>
+  </si>
+  <si>
+    <t>Eksporter tabell til tekstfil (csv)</t>
+  </si>
+  <si>
+    <t>Levar a cabo más análisis con los perfiles seleccionados (evid/refs): mostrar, borrar, exportar o llevar a cabo separación de perfiles (deconvolution)</t>
+  </si>
+  <si>
+    <t>calccons</t>
+  </si>
+  <si>
+    <t>Calc. CONS</t>
+  </si>
+  <si>
+    <t>Beregn. CONS</t>
+  </si>
+  <si>
+    <t>tip.woe.cons</t>
+  </si>
+  <si>
+    <t>tip.woe.delete</t>
+  </si>
+  <si>
+    <t>Delete selected row</t>
+  </si>
+  <si>
+    <t>Slett valgt rad</t>
+  </si>
+  <si>
+    <t>(Re)Calculate conservative LR for selected hypothesis set (MCMC)</t>
+  </si>
+  <si>
+    <t>Slett rad i tabellen</t>
+  </si>
+  <si>
+    <t>La edidencia ($evidtxt) es $LRtxt veces más probable de ocurrir si el ADN procede de $hptxt que si procede de $hdtxt.</t>
+  </si>
+  <si>
+    <t>Recalcular el LR conservador para el conjunto de hipótesis seleccionado (MCMC)</t>
+  </si>
+  <si>
+    <t>Beregn Conservative LR for valgt hypotesesett (MCMC)</t>
+  </si>
+  <si>
+    <t>numword_more</t>
+  </si>
+  <si>
+    <t>more than</t>
+  </si>
+  <si>
+    <t>mer enn</t>
+  </si>
+  <si>
+    <t>más que</t>
+  </si>
+  <si>
+    <t>nummismatch</t>
+  </si>
+  <si>
+    <t>nMismatch</t>
+  </si>
+  <si>
+    <t>Ant.Missmatch</t>
+  </si>
+  <si>
+    <t>Num.Mis.</t>
+  </si>
+  <si>
+    <t>nummarkers</t>
+  </si>
+  <si>
+    <t>nLocs</t>
+  </si>
+  <si>
+    <t>Ant.Markører</t>
+  </si>
+  <si>
+    <t>Num.Mark.</t>
+  </si>
+  <si>
+    <t>Bayes</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>MLE</t>
+  </si>
+  <si>
+    <t>Konservativ</t>
+  </si>
+  <si>
     <t>Rapport for sak</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Ukjent</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>showfor</t>
-  </si>
-  <si>
-    <t>Show for</t>
-  </si>
-  <si>
-    <t>Vis for</t>
-  </si>
-  <si>
-    <t>donttruncate</t>
-  </si>
-  <si>
-    <t>Don't truncate</t>
-  </si>
-  <si>
-    <t>Ikke trunker</t>
-  </si>
-  <si>
-    <t>macthreshold</t>
-  </si>
-  <si>
-    <t>qualLRthreshold</t>
-  </si>
-  <si>
-    <t>quanLRthreshold</t>
-  </si>
-  <si>
-    <t>Allele-sammenligningsterskel</t>
-  </si>
-  <si>
-    <t>Importer</t>
-  </si>
-  <si>
-    <t>MAC threshold (comparison)</t>
-  </si>
-  <si>
-    <t>Quan. LR threshold (comparison)</t>
-  </si>
-  <si>
-    <t>Qual. LR threshold (comparison)</t>
-  </si>
-  <si>
-    <t>Kvalitativ LR-terskel (sammenligning)</t>
-  </si>
-  <si>
-    <t>Kvantitativ LR-terskel (sammenligning)</t>
-  </si>
-  <si>
-    <t>Minimum loci for being SS match (Import)</t>
-  </si>
-  <si>
-    <t>Minimum IBS for being relative candidate (IBS)</t>
-  </si>
-  <si>
-    <t>Prob-ratio to next (Deconvolution)</t>
-  </si>
-  <si>
-    <t>Prob. single allele (Deconvolution)</t>
-  </si>
-  <si>
-    <t>minLocSSmatch</t>
-  </si>
-  <si>
-    <t>minIBSrelative</t>
-  </si>
-  <si>
-    <t>probRatioToNext</t>
-  </si>
-  <si>
-    <t>probSingleAllele</t>
-  </si>
-  <si>
-    <t>Minste markørantall for å treffe ren profil (importering)</t>
-  </si>
-  <si>
-    <t>Minste alleleoverlapp for å være slekning (IBS)</t>
-  </si>
-  <si>
-    <t>Terskelkrav for dekonvolusjon (genotyper)</t>
-  </si>
-  <si>
-    <t>Terskelkrav for dekonvolusjon (alleler)</t>
-  </si>
-  <si>
-    <t>path with CASE folders</t>
-  </si>
-  <si>
-    <t>pathcasefolders</t>
-  </si>
-  <si>
-    <t>sti til saksmappene</t>
-  </si>
-  <si>
-    <t>Konsensusprofiler</t>
-  </si>
-  <si>
-    <t>consensusprofiles</t>
-  </si>
-  <si>
-    <t>Consensus profiles</t>
-  </si>
-  <si>
-    <t>matchnetwork</t>
-  </si>
-  <si>
-    <t>Treffnettverk</t>
-  </si>
-  <si>
-    <t>Match Network</t>
-  </si>
-  <si>
-    <t>Andre opplysninger</t>
-  </si>
-  <si>
-    <t>Forventet høydefigur</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Ingen</t>
-  </si>
-  <si>
-    <t>Ikke utført</t>
-  </si>
-  <si>
-    <t>notcompleted</t>
-  </si>
-  <si>
-    <t>Not completed</t>
-  </si>
-  <si>
-    <t>No candidates</t>
-  </si>
-  <si>
-    <t>nocandidates</t>
-  </si>
-  <si>
-    <t>Ingen kandidater</t>
-  </si>
-  <si>
-    <t>Treffstatus</t>
-  </si>
-  <si>
-    <t>Match Status</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>versjon</t>
-  </si>
-  <si>
-    <t>Lag</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>Empty</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Attachments</t>
-  </si>
-  <si>
-    <t>attachments</t>
-  </si>
-  <si>
-    <t>Tilleggsopplysninger</t>
-  </si>
-  <si>
-    <t>threshs</t>
-  </si>
-  <si>
-    <t>Thresholds</t>
-  </si>
-  <si>
-    <t>Terskler</t>
-  </si>
-  <si>
-    <t>randommatchprob</t>
-  </si>
-  <si>
-    <t>Random match probabilities</t>
-  </si>
-  <si>
-    <t>Sannsynligheter for tilfeldig treff</t>
-  </si>
-  <si>
-    <t>comparisons</t>
-  </si>
-  <si>
-    <t>Comparisons</t>
-  </si>
-  <si>
-    <t>Sammenligninger</t>
-  </si>
-  <si>
-    <t>Laget</t>
-  </si>
-  <si>
-    <t>Saksnr</t>
-  </si>
-  <si>
-    <t>concordantevidences</t>
-  </si>
-  <si>
-    <t>Concordance of crime scene profiles</t>
-  </si>
-  <si>
-    <t>Elektropherogram</t>
-  </si>
-  <si>
-    <t>removeselected</t>
-  </si>
-  <si>
-    <t>Fjern valgt</t>
-  </si>
-  <si>
-    <t>Remove selected</t>
-  </si>
-  <si>
-    <t>AMEL</t>
-  </si>
-  <si>
-    <t>Amelogenin</t>
-  </si>
-  <si>
-    <t>include</t>
-  </si>
-  <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>Legg til</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>PÅ</t>
-  </si>
-  <si>
-    <t>AV</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>Both</t>
-  </si>
-  <si>
-    <t>Begge</t>
-  </si>
-  <si>
-    <t>qualmodel</t>
-  </si>
-  <si>
-    <t>Qualitative (LRmix)</t>
-  </si>
-  <si>
-    <t>quanmodel</t>
-  </si>
-  <si>
-    <t>Quantitative (EuroForMix)</t>
-  </si>
-  <si>
-    <t>Model type(s)</t>
-  </si>
-  <si>
-    <t>Dropin probability</t>
-  </si>
-  <si>
-    <t>Dropin peak height Lambda (EFM)</t>
-  </si>
-  <si>
-    <t>Degradation model (EFM)</t>
-  </si>
-  <si>
-    <t>Stutter model (EFM)</t>
-  </si>
-  <si>
-    <t>modeltypes</t>
-  </si>
-  <si>
-    <t>dropinpeakheightlambda</t>
-  </si>
-  <si>
-    <t>degradationmodel</t>
-  </si>
-  <si>
-    <t>stuttermodel</t>
-  </si>
-  <si>
-    <t>Analytical threshold (AT)</t>
-  </si>
-  <si>
-    <t>analyticalthreshold</t>
-  </si>
-  <si>
-    <t>dropinprob</t>
-  </si>
-  <si>
-    <t>Modeltyper</t>
-  </si>
-  <si>
-    <t>Analytisk grense (AT)</t>
-  </si>
-  <si>
-    <t>Dropinsannsynlighet</t>
-  </si>
-  <si>
-    <t>Dropinhøydesannsynlighet (EFM)</t>
-  </si>
-  <si>
-    <t>Degraderingsmodell (EFM)</t>
-  </si>
-  <si>
-    <t>Stuttermodell (EFM)</t>
-  </si>
-  <si>
-    <t>Spor-Spor sammenligning</t>
-  </si>
-  <si>
-    <t>concordantreferences</t>
-  </si>
-  <si>
-    <t>Concordance of reference profiles (IBS)</t>
-  </si>
-  <si>
-    <t>Referanse-mot-referanse sammenligning (IBS)</t>
-  </si>
-  <si>
-    <t>msg.nocandidates</t>
-  </si>
-  <si>
-    <t>No candidates found</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>msg.calculationconfirmwarning</t>
-  </si>
-  <si>
-    <t>Er du sikker på at du vil kjøre beregningene? Mye minne kreves ved mange markører!</t>
-  </si>
-  <si>
-    <t>Ingen kandidater ble funnet</t>
-  </si>
-  <si>
-    <t>Reference name already taken. Please consider a new name!</t>
-  </si>
-  <si>
-    <t>msg.refnametaken</t>
-  </si>
-  <si>
-    <t>Are you sure you want to apply the changes in</t>
-  </si>
-  <si>
-    <t>msg.sureapplychanges</t>
-  </si>
-  <si>
-    <t>Are you sure you want to delete</t>
-  </si>
-  <si>
-    <t>msg.suredelete</t>
-  </si>
-  <si>
-    <t>Define index of reference profiles to show (use comma, AND/OR minus-)</t>
-  </si>
-  <si>
-    <t>msg.indexinput</t>
-  </si>
-  <si>
-    <t>msg.selectoneprofile</t>
-  </si>
-  <si>
-    <t>Vennligst velg kun én profil for å fortsette</t>
-  </si>
-  <si>
-    <t>Vennligst velg minst en profil for å fortsette</t>
-  </si>
-  <si>
-    <t>Please select only one profile to continue</t>
-  </si>
-  <si>
-    <t>Please select at least one profile to continue</t>
-  </si>
-  <si>
-    <t>Do you want to add the following deconvoluted profile to the references?</t>
-  </si>
-  <si>
-    <t>msg.addDCprofile</t>
-  </si>
-  <si>
-    <t>Condition on</t>
-  </si>
-  <si>
-    <t>condtionON</t>
-  </si>
-  <si>
-    <t>log10 LR</t>
-  </si>
-  <si>
-    <t>Person of interest (POI)</t>
-  </si>
-  <si>
-    <t>msg.morecontrwarning</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>Warning</t>
-  </si>
-  <si>
-    <t>LR</t>
-  </si>
-  <si>
-    <t>POI</t>
-  </si>
-  <si>
-    <t>The calculated LR was</t>
-  </si>
-  <si>
-    <t>msg.calculatedLR</t>
-  </si>
-  <si>
-    <t>Do you want to use the result?</t>
-  </si>
-  <si>
-    <t>msg.useresult</t>
-  </si>
-  <si>
-    <t>condRef</t>
-  </si>
-  <si>
-    <t>condref</t>
-  </si>
-  <si>
-    <t>CondRef</t>
-  </si>
-  <si>
-    <t>concordance</t>
-  </si>
-  <si>
-    <t>Concordance</t>
-  </si>
-  <si>
-    <t>msg.largesampleerror</t>
-  </si>
-  <si>
-    <t>fileexport</t>
-  </si>
-  <si>
-    <t>File export</t>
-  </si>
-  <si>
-    <t>Fileksportering</t>
-  </si>
-  <si>
-    <t>Referansenavnet var alt tatt. Vennligst velg et nytt navn!</t>
-  </si>
-  <si>
-    <t>Er du sikker på at du vil gjøre forandringer i</t>
-  </si>
-  <si>
-    <t>Er du sikker på at du vil fjerne</t>
-  </si>
-  <si>
-    <t>Definer indekser til profiler som du vil vise (bruk komma, OG/eller minus-)</t>
-  </si>
-  <si>
-    <t>Vil du legge til følgende dekonvolverte profil til referanser?</t>
-  </si>
-  <si>
-    <t>Merk: Du har valg flere bidragsytere enn det som er gitt i</t>
-  </si>
-  <si>
-    <t>Notice: You have selected more contributors than given in</t>
-  </si>
-  <si>
-    <t>Den beregnede LR verdien var</t>
-  </si>
-  <si>
-    <t>Vil du bruke resultatet</t>
-  </si>
-  <si>
-    <t>Antall sampler var for høyt. Vennligst øk minnet for å fortsette</t>
-  </si>
-  <si>
-    <t>The number of samples was too large. Please increase the memory in order to proceed</t>
-  </si>
-  <si>
-    <t>Advarsel</t>
-  </si>
-  <si>
-    <t>Beting på</t>
-  </si>
-  <si>
-    <t>Person av interesse (POI)</t>
-  </si>
-  <si>
-    <t>Maximum contributors in QualLR (LRmix)</t>
-  </si>
-  <si>
-    <t>maxcontrqual</t>
-  </si>
-  <si>
-    <t>Maximum contributors in QuanLR (EFM)</t>
-  </si>
-  <si>
-    <t>maxcontrquan</t>
-  </si>
-  <si>
-    <t>Number of required optimizes (EFM)</t>
-  </si>
-  <si>
-    <t>numoptim</t>
-  </si>
-  <si>
-    <t>Start with one contributor when estimating contrs</t>
-  </si>
-  <si>
-    <t>useoneaslowestnoc</t>
-  </si>
-  <si>
-    <t>useSNPmodule</t>
-  </si>
-  <si>
-    <t>Antall optimaliseringer (EFM)</t>
-  </si>
-  <si>
-    <t>Bruk SNP modul (alltid 3 bidragsytere)</t>
-  </si>
-  <si>
-    <t>Use SNP module (always 3 contributors)</t>
-  </si>
-  <si>
-    <t>Norwegian</t>
-  </si>
-  <si>
-    <t>Diseño del informe</t>
-  </si>
-  <si>
-    <t>Abrir en</t>
-  </si>
-  <si>
-    <t>Directorio de trabajo</t>
-  </si>
-  <si>
-    <t>Carpeta del caso</t>
-  </si>
-  <si>
-    <t>rutaCarpetasCaso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerrar programa </t>
-  </si>
-  <si>
-    <t>Umbrales</t>
-  </si>
-  <si>
-    <t>Matriz de Matches</t>
-  </si>
-  <si>
-    <t>Lista de Matches</t>
-  </si>
-  <si>
-    <t>Status de Matches</t>
-  </si>
-  <si>
-    <t>Gráfico de Matches</t>
-  </si>
-  <si>
-    <t>Exportar archivo</t>
-  </si>
-  <si>
-    <t>Separar perfiles</t>
-  </si>
-  <si>
-    <t>Perfiles Separados</t>
-  </si>
-  <si>
-    <t>Separación de perfiles</t>
-  </si>
-  <si>
-    <t>creado</t>
-  </si>
-  <si>
-    <t>Frecuencias poblacionales (popfrec)</t>
-  </si>
-  <si>
-    <t>Perfiles consenso</t>
-  </si>
-  <si>
-    <t>Amel (amelogenina)</t>
-  </si>
-  <si>
-    <t>PDI (persona de interés)</t>
-  </si>
-  <si>
-    <t>Número de muestra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concordancia  </t>
-  </si>
-  <si>
-    <t>Evidencias Concordantes</t>
-  </si>
-  <si>
-    <t>Referencias Concordantes (IBS)</t>
-  </si>
-  <si>
-    <t>vacío</t>
-  </si>
-  <si>
-    <t>versión</t>
-  </si>
-  <si>
-    <t>adjuntos</t>
-  </si>
-  <si>
-    <t>No completado</t>
-  </si>
-  <si>
-    <t>Sin candidatos</t>
-  </si>
-  <si>
-    <t>condicionar a</t>
-  </si>
-  <si>
-    <t>condicionar a referencia</t>
-  </si>
-  <si>
-    <t>Advertencia</t>
-  </si>
-  <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Entrada del usuario</t>
-  </si>
-  <si>
-    <t>Nombrar archivo del informe</t>
-  </si>
-  <si>
-    <t>Informe del caso</t>
-  </si>
-  <si>
-    <t>Umbral de match</t>
-  </si>
-  <si>
-    <t>Umbral LR Cual.</t>
-  </si>
-  <si>
-    <t>Umbral LR Cuan.</t>
-  </si>
-  <si>
-    <t>minLocIndivMatch (Loci mínimos para matches de perfiles individuales)</t>
-  </si>
-  <si>
-    <t>minIBSparentesco (IBS mínimo para parentesco)</t>
-  </si>
-  <si>
-    <t>Prob-ratio al siguiente (separación de perfiles)</t>
-  </si>
-  <si>
-    <t>Prob. Alelo (separación de perfiles)</t>
-  </si>
-  <si>
-    <t>ambos</t>
-  </si>
-  <si>
-    <t>Cualitativo (LRmix)</t>
-  </si>
-  <si>
-    <t>Cuantitativo (EuroForMix)</t>
-  </si>
-  <si>
-    <t>Tipo(s) de modelo</t>
-  </si>
-  <si>
-    <t>Umbral analítico (AT)</t>
-  </si>
-  <si>
-    <t>Probabilidad de Drop-in</t>
-  </si>
-  <si>
-    <t>Número de optimizaciones requeridas (EFM)</t>
-  </si>
-  <si>
-    <t>Empezar con un contribuyente cuando se estimen los contribuyentes</t>
-  </si>
-  <si>
-    <t>Usar módulo SNP (siempre 3 contribuyentes)</t>
-  </si>
-  <si>
-    <t>Quiere guardar el proyecto?</t>
-  </si>
-  <si>
-    <t>Está seguro de que quiere salir?</t>
-  </si>
-  <si>
-    <t>No se han encontrado candidatos</t>
-  </si>
-  <si>
-    <t>Nombre de muestra de referencia ya utilizado. Por favor, utilice otro nombre!</t>
-  </si>
-  <si>
-    <t>Está seguro de que quiere aplicar los cambios en</t>
-  </si>
-  <si>
-    <t>Está seguro de que quiere borrar</t>
-  </si>
-  <si>
-    <t>Quiere añadir a la lista de referencias los siguientes perfiles separados?</t>
-  </si>
-  <si>
-    <t>El LR calculado es</t>
-  </si>
-  <si>
-    <t>Quiere utlizar los resultados?</t>
-  </si>
-  <si>
-    <t>El número de muestras es demasiado elevado. Por favor, aumente la memoria de su ordenador para proceder</t>
-  </si>
-  <si>
-    <t>logLR</t>
-  </si>
-  <si>
-    <t>Are you sure you want to run the calculations? This may take very much time and memory when having many markers!</t>
-  </si>
-  <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>finalmatchlist</t>
-  </si>
-  <si>
-    <t>Final Match List</t>
-  </si>
-  <si>
-    <t>Endelig Matchlist</t>
-  </si>
-  <si>
-    <t>Lista de Matches final</t>
-  </si>
-  <si>
-    <t>deconvolvemixtures</t>
-  </si>
-  <si>
-    <t>Deconvolve all</t>
-  </si>
-  <si>
-    <t>Dekonvolver alt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Separar todas las mezclas </t>
-  </si>
-  <si>
-    <t>Ord. evids por</t>
-  </si>
-  <si>
-    <t>Ord. refs por</t>
-  </si>
-  <si>
-    <t>Ord. por</t>
-  </si>
-  <si>
-    <t>Definir</t>
-  </si>
-  <si>
-    <t>Modelos</t>
-  </si>
-  <si>
-    <t>ImportData function (script para importar datos)</t>
-  </si>
-  <si>
-    <t>Incluir</t>
-  </si>
-  <si>
-    <t>RPM</t>
-  </si>
-  <si>
-    <t>Modelar degradación (EFM)</t>
-  </si>
-  <si>
-    <t>Modelar Stutter (EFM)</t>
-  </si>
-  <si>
-    <t>Máximo num. contribuyentes en CualLR (LRmix)</t>
-  </si>
-  <si>
-    <t>Máximo num. contribuyentes en CuanLR (EFM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por favor, seleccione un archivo de frecuencias poblacionales válido. Vaya a </t>
-  </si>
-  <si>
-    <t>Por favor, especifique un kit para poder realizar las comparaciones. Vaya a Preparar-&gt;Seleccionar kit</t>
-  </si>
-  <si>
-    <t>Por favor, seleccione al menos un perfil para continuar</t>
-  </si>
-  <si>
-    <t>Por favor, seleccione sólo un perfil para continuar</t>
-  </si>
-  <si>
-    <t>Está seguro de que desea eliminar los siguientes perfiles?:</t>
-  </si>
-  <si>
-    <t>Está seguro de que quiere realizar los cálculos? Con tantos marcadores, esto tardará mucho y utilizará mucha menoria</t>
-  </si>
-  <si>
-    <t>Defina el índice de perfiles de referencia a mostrar (use coma Y/O símbolo guión medio -)</t>
-  </si>
-  <si>
-    <t>Desconocido</t>
-  </si>
-  <si>
-    <t>Show single sources in Matches</t>
-  </si>
-  <si>
-    <t>Vis rene profiler i Treffliste</t>
-  </si>
-  <si>
-    <t>rotatematrix</t>
-  </si>
-  <si>
-    <t>sort.column</t>
-  </si>
-  <si>
-    <t>sort.row</t>
-  </si>
-  <si>
-    <t>Column name</t>
-  </si>
-  <si>
-    <t>Row name</t>
-  </si>
-  <si>
-    <t>Kolonnenavn</t>
-  </si>
-  <si>
-    <t>Radnavn</t>
-  </si>
-  <si>
-    <t>nombre de columna</t>
-  </si>
-  <si>
-    <t>nombre de fila</t>
-  </si>
-  <si>
-    <t>showssinmatchlist</t>
-  </si>
-  <si>
-    <t>profileselector</t>
-  </si>
-  <si>
-    <t>Profile selector (import/report)</t>
-  </si>
-  <si>
-    <t>Velg profiler (import/rapport)</t>
-  </si>
-  <si>
-    <t>msg.nodata</t>
-  </si>
-  <si>
-    <t>No data was found when importing</t>
-  </si>
-  <si>
-    <t>Ingen data ble funnet ved importering</t>
-  </si>
-  <si>
-    <t>Rotate MatchMatrix</t>
-  </si>
-  <si>
-    <t>Roter tabell</t>
-  </si>
-  <si>
-    <t>Rotar Matriz</t>
-  </si>
-  <si>
-    <t>Match degree</t>
-  </si>
-  <si>
-    <t>sort.matchval</t>
-  </si>
-  <si>
-    <t>Evidence</t>
-  </si>
-  <si>
-    <t>Evidence(s)</t>
-  </si>
-  <si>
-    <t>Ref-Ref</t>
-  </si>
-  <si>
-    <t>Start est. NOC med 1</t>
-  </si>
-  <si>
-    <t>MixProp</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>woeResult</t>
-  </si>
-  <si>
-    <t>Weight of evidence results</t>
-  </si>
-  <si>
-    <t>Bevisvekting</t>
-  </si>
-  <si>
-    <t>Bl.forhold.</t>
-  </si>
-  <si>
-    <t>extractedprofiles</t>
-  </si>
-  <si>
-    <t>Extracted profiles</t>
-  </si>
-  <si>
-    <t>Ekstraherte profiler</t>
-  </si>
-  <si>
-    <t>Fst/Theta correction (WoE)</t>
-  </si>
-  <si>
-    <t>fstsetting</t>
-  </si>
-  <si>
-    <t>BWstuttermodel</t>
-  </si>
-  <si>
-    <t>BW stutter model (EFM)</t>
-  </si>
-  <si>
-    <t>Modelar BW Stutter (EFM)</t>
-  </si>
-  <si>
-    <t>FWstuttermodel</t>
-  </si>
-  <si>
-    <t>FW stutter model (EFM)</t>
-  </si>
-  <si>
-    <t>Modelar FW Stutter (EFM)</t>
-  </si>
-  <si>
-    <t>mcmc</t>
-  </si>
-  <si>
-    <t>MCMC</t>
-  </si>
-  <si>
-    <t>niter</t>
-  </si>
-  <si>
-    <t>Number of iterations</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
-    <t>Default sampler variation</t>
-  </si>
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>quantile</t>
-  </si>
-  <si>
-    <t>Conservative LR quantile</t>
-  </si>
-  <si>
-    <t>Sampler seed</t>
-  </si>
-  <si>
-    <t>preview</t>
-  </si>
-  <si>
-    <t>Preview</t>
-  </si>
-  <si>
-    <t>lrpermarker</t>
-  </si>
-  <si>
-    <t>setpermarker</t>
-  </si>
-  <si>
-    <t>Set per marker</t>
-  </si>
-  <si>
-    <t>Marker</t>
-  </si>
-  <si>
-    <t>Genotype</t>
-  </si>
-  <si>
-    <t>Markers</t>
-  </si>
-  <si>
-    <t>Modelparameters</t>
-  </si>
-  <si>
-    <t>Model parameters</t>
-  </si>
-  <si>
-    <t>DCreporttext1</t>
-  </si>
-  <si>
-    <t>DCreporttext2</t>
-  </si>
-  <si>
-    <t>Predicted genotype (allele if below threshold)</t>
-  </si>
-  <si>
-    <t>The probability ratio between top ranked genotype and second ranked genotype</t>
-  </si>
-  <si>
-    <t>addasref</t>
-  </si>
-  <si>
-    <t>Add as Ref</t>
-  </si>
-  <si>
-    <t>statement</t>
-  </si>
-  <si>
-    <t>numword_2</t>
-  </si>
-  <si>
-    <t>hundred</t>
-  </si>
-  <si>
-    <t>hundre</t>
-  </si>
-  <si>
-    <t>numword_3</t>
-  </si>
-  <si>
-    <t>thousand</t>
-  </si>
-  <si>
-    <t>tusen</t>
-  </si>
-  <si>
-    <t>numword_6</t>
-  </si>
-  <si>
-    <t>million</t>
-  </si>
-  <si>
-    <t>numword_9</t>
-  </si>
-  <si>
-    <t>billion</t>
-  </si>
-  <si>
-    <t>milliard</t>
-  </si>
-  <si>
-    <t>numword_12</t>
-  </si>
-  <si>
-    <t>trillion</t>
-  </si>
-  <si>
-    <t>numword_15</t>
-  </si>
-  <si>
-    <t>billiard</t>
-  </si>
-  <si>
-    <t>numword_18</t>
-  </si>
-  <si>
-    <t>numword_21</t>
-  </si>
-  <si>
-    <t>trilliard</t>
-  </si>
-  <si>
-    <t>numword_24</t>
-  </si>
-  <si>
-    <t>numword_27</t>
-  </si>
-  <si>
-    <t>numword_30</t>
-  </si>
-  <si>
-    <t>numword_33</t>
-  </si>
-  <si>
-    <t>numword_36</t>
-  </si>
-  <si>
-    <t>numword_39</t>
-  </si>
-  <si>
-    <t>sekstilliard</t>
-  </si>
-  <si>
-    <t>numword_42</t>
-  </si>
-  <si>
-    <t>numword_45</t>
-  </si>
-  <si>
-    <t>numword_48</t>
-  </si>
-  <si>
-    <t>unknowns</t>
-  </si>
-  <si>
-    <t>Unknowns</t>
-  </si>
-  <si>
-    <t>Ukjente</t>
-  </si>
-  <si>
-    <t>Desconocidos</t>
-  </si>
-  <si>
-    <t>woeStatements</t>
-  </si>
-  <si>
-    <t>Verbal statements (WoE)</t>
-  </si>
-  <si>
-    <t>Verbal bevisvekting</t>
-  </si>
-  <si>
-    <t>LR-per marker (MLE)</t>
-  </si>
-  <si>
-    <t>LR-per markør (MLE)</t>
-  </si>
-  <si>
-    <t>woeParams</t>
-  </si>
-  <si>
-    <t>Model parameters (WOE)</t>
-  </si>
-  <si>
-    <t>statementScheme</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>og</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>WOEreporttext</t>
-  </si>
-  <si>
-    <t>Unknowns are assumed to be unrelated individuals from the selected population</t>
-  </si>
-  <si>
-    <t>Antall iterasjoner</t>
-  </si>
-  <si>
-    <t>Samplerfrø</t>
-  </si>
-  <si>
-    <t>Velg per markør</t>
-  </si>
-  <si>
-    <t>Markør</t>
-  </si>
-  <si>
-    <t>Markører</t>
-  </si>
-  <si>
-    <t>Modellparametre</t>
-  </si>
-  <si>
-    <t>Forhåndsvis</t>
-  </si>
-  <si>
-    <t>Legg til som ref.</t>
-  </si>
-  <si>
-    <t>Ukjente individer er antatt ubeslektede fra valgt populasjon</t>
-  </si>
-  <si>
-    <t>Hypotesesett</t>
-  </si>
-  <si>
-    <t>Hypothesis set</t>
-  </si>
-  <si>
-    <t>hypothesisset</t>
-  </si>
-  <si>
-    <t>numwordPlural</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>The evidence ($evidtxt) is $LRtxt times more likely if the DNA came from $hptxt than if it came from $hdtxt</t>
-  </si>
-  <si>
-    <t>Sporet ($evidtxt) er $LRtxt ganger mer sannsynlig hvis DNA-et kommer fra $hptxt enn hvis det kom fra $hdtxt</t>
-  </si>
-  <si>
-    <t>LRmle</t>
-  </si>
-  <si>
-    <t>LRcons</t>
-  </si>
-  <si>
-    <t>LRbayes</t>
-  </si>
-  <si>
-    <t>MxPOI</t>
-  </si>
-  <si>
-    <t>Betingede</t>
-  </si>
-  <si>
-    <t>Conditionals</t>
-  </si>
-  <si>
-    <t>Conditional(s)</t>
-  </si>
-  <si>
-    <t>nFailed</t>
-  </si>
-  <si>
-    <t>Ant. Feilet (Hp/Hd)</t>
-  </si>
-  <si>
-    <t>Num. Failed (Hp/Hd)</t>
-  </si>
-  <si>
-    <t>Ninguno</t>
-  </si>
-  <si>
-    <t>Foreslått profil (kun allele hvis under terskel)</t>
-  </si>
-  <si>
-    <t>Sannsynlighet av mest sannsynlig profil delt på sannsynligheten av nest-mest sannsynlig profil</t>
-  </si>
-  <si>
-    <t>similarity</t>
-  </si>
-  <si>
-    <t>Similarity</t>
-  </si>
-  <si>
-    <t>Likhet</t>
-  </si>
-  <si>
-    <t>AMEL included</t>
-  </si>
-  <si>
-    <t>Normalized</t>
-  </si>
-  <si>
-    <t>AMELincluded</t>
-  </si>
-  <si>
-    <t>minFreq</t>
-  </si>
-  <si>
-    <t>Minimum frequency</t>
-  </si>
-  <si>
-    <t>woeperform</t>
-  </si>
-  <si>
-    <t>Perform WOE</t>
-  </si>
-  <si>
-    <t>tip.data.changeview</t>
-  </si>
-  <si>
-    <t>tip.data.import</t>
-  </si>
-  <si>
-    <t>tip.data.importref</t>
-  </si>
-  <si>
-    <t>tip.data.compare</t>
-  </si>
-  <si>
-    <t>tip.data.createreport</t>
-  </si>
-  <si>
-    <t>tip.data.selectprofiles</t>
-  </si>
-  <si>
-    <t>tip.data.rmp</t>
-  </si>
-  <si>
-    <t>tip.data.ibs</t>
-  </si>
-  <si>
-    <t>tip.data.conc</t>
-  </si>
-  <si>
-    <t>tip.data.editref</t>
-  </si>
-  <si>
-    <t>tip.data.restart</t>
-  </si>
-  <si>
-    <t>tip.matchmatrix.truncate</t>
-  </si>
-  <si>
-    <t>tip.matchlistQual.calc</t>
-  </si>
-  <si>
-    <t>tip.matches.woe</t>
-  </si>
-  <si>
-    <t>tip.matches.dcall</t>
-  </si>
-  <si>
-    <t>tip.export</t>
-  </si>
-  <si>
-    <t>Export table to a textfile</t>
-  </si>
-  <si>
-    <t>tip.dc.exportsel</t>
-  </si>
-  <si>
-    <t>tip.dc.delete</t>
-  </si>
-  <si>
-    <t>tip.dc.showprobs</t>
-  </si>
-  <si>
-    <t>tip.dc.addasref</t>
-  </si>
-  <si>
-    <t>tip.woe.lrpermarker</t>
-  </si>
-  <si>
-    <t>tip.woe.paramest</t>
-  </si>
-  <si>
-    <t>tip.woe.modelvalid</t>
-  </si>
-  <si>
-    <t>tip.woe.fittedPH</t>
-  </si>
-  <si>
-    <t>tip.woe.statement</t>
-  </si>
-  <si>
-    <t>Import data from selected case. Alternatively it is also possible to edit name of case and press ENTER.</t>
-  </si>
-  <si>
-    <t>Import additional reference(s) to session by selecting a textfile (requires EFM/LRmix format)</t>
-  </si>
-  <si>
-    <t>Create a report with results conducted in the session. Modify report in Report settings. Different report formats are supported.</t>
-  </si>
-  <si>
-    <t>Conduct further analysis with selected (highlighted) profiles (evid/refs): Show, delete, export or perform deconvolution</t>
-  </si>
-  <si>
-    <t>The number of shared alleles between all evidences are calculated (concordance). Only pairs which obtains a value above specified MAC threshold are shown.</t>
-  </si>
-  <si>
-    <t>The number of shared alleles between all references are calculated (Identical By State). Only pairs which obtains a value above specified IBS threshold are shown.</t>
-  </si>
-  <si>
-    <t>Edit name or alleles of any of the references. Also possible to add new references.</t>
-  </si>
-  <si>
-    <t>Restart program session (all panels are cleared).</t>
-  </si>
-  <si>
-    <t>Truncate cells which has a value below the specified MAC threshold.</t>
-  </si>
-  <si>
-    <t>Calculate the quantitative based LR for all candidates being above the QualLR threshold</t>
-  </si>
-  <si>
-    <t>Define and perform weight of evidence calculations based on user-defined hypotheses. The LR values may also take into account theta/Fst-correction.</t>
-  </si>
-  <si>
-    <t>Performing deconvolution of all evidence profiles in the matchlist having at least one unknown. The deconvolution will condition on the matchcandidates.</t>
-  </si>
-  <si>
-    <t>Export selected profile to a EFM/LRmix supported textfile.</t>
-  </si>
-  <si>
-    <t>Delete row in table</t>
-  </si>
-  <si>
-    <t>Show the ratioToNext='probability of top ranked candidate divided by the probability of the second ranked candidate', where candidates are whole genotypes. Single alleles may be extracted if below specified DC genotype-setting but above allele-setting.</t>
-  </si>
-  <si>
-    <t>Move selected profile (row) to the reference table in the data panel. The user may change the name (followed by ENTER).</t>
-  </si>
-  <si>
-    <t>Show LR per marker (based on MLE calculations)</t>
-  </si>
-  <si>
-    <t>Show and edit statement for selected hypothesis set. It is possible to edit the statement here before creating report.</t>
-  </si>
-  <si>
-    <t>Triggers the comparisons between Mixtures (and evidence(s) with emtpy MatchStatus) and references. This is an investigatory comparison search where match-candidates are obtained based on thresholds (see threshold settings). The results are shown in the next panels, and the final candidate list is shown under Matches</t>
-  </si>
-  <si>
-    <t>log10LR (Bayes)</t>
-  </si>
-  <si>
-    <t>log10LR (Conservative)</t>
-  </si>
-  <si>
-    <t>log10LR (MLE)</t>
-  </si>
-  <si>
-    <t>Sampler-variasjon</t>
-  </si>
-  <si>
-    <t>log10LR (Konservativ)</t>
-  </si>
-  <si>
-    <t>Minimum allelefrekvens</t>
-  </si>
-  <si>
-    <t>Minimum allele frequency</t>
-  </si>
-  <si>
-    <t>Mezclas</t>
-  </si>
-  <si>
-    <t>Navngi rapportfil</t>
-  </si>
-  <si>
-    <t>Normalisert</t>
-  </si>
-  <si>
-    <t>Kvantitativ (EuroForMix)</t>
-  </si>
-  <si>
-    <t>Konservativ LR-kvantil</t>
-  </si>
-  <si>
-    <t>Rangering</t>
-  </si>
-  <si>
-    <t>Treffgrad</t>
-  </si>
-  <si>
-    <t>utsagn</t>
-  </si>
-  <si>
-    <t>m/høyde</t>
-  </si>
-  <si>
-    <t>Utfør bevisvekting</t>
-  </si>
-  <si>
-    <t>Model parameters (bevisvekting)</t>
-  </si>
-  <si>
-    <t>Fst/Theta korreksjon (bevisvekting)</t>
-  </si>
-  <si>
-    <t>Endre tabell-utforming av bevis vs referanser</t>
-  </si>
-  <si>
-    <t>Importer data fra valgt sak</t>
-  </si>
-  <si>
-    <t>Importer tilleggsreferanser</t>
-  </si>
-  <si>
-    <t>Utfører sammenligning mellom blandinger og referanser</t>
-  </si>
-  <si>
-    <t>Lag rapport</t>
-  </si>
-  <si>
-    <t>Utfør andre funksjoner på valgte profiler</t>
-  </si>
-  <si>
-    <t>Calculate random man not excluded (RMNE) and random match probability (RMP) of reference profiles</t>
-  </si>
-  <si>
-    <t>Beregn profilsannsynligheter</t>
-  </si>
-  <si>
-    <t>Beregner antall delte alleler mellom alle referanser</t>
-  </si>
-  <si>
-    <t>Antall delte alleler mellom spor</t>
-  </si>
-  <si>
-    <t>Endre navn til referanser</t>
-  </si>
-  <si>
-    <t>Restart</t>
-  </si>
-  <si>
-    <t>Trunker celler som har verdi lavere enn spessifisert MAC terskel</t>
-  </si>
-  <si>
-    <t>Beregn kvantiative LR basert på alle kandidater over kval.LR-terskel</t>
-  </si>
-  <si>
-    <t>Definer and utfør bevisvekt for bruker-definerte hypoteser. Modellen benytter seg av definert theta/Fst-korreksjon.</t>
-  </si>
-  <si>
-    <t>Utfører dekonvolusjon av alle sporprofiler i treff-kandidatlisten som har minst én ukjent. Dekonvolusjonen vil betinge på alle treffkandidater.</t>
-  </si>
-  <si>
-    <t>Eksporter valgte profiler til EFM/LRmix teksfilformat.</t>
-  </si>
-  <si>
-    <t>Resultater fra bevisvekting</t>
-  </si>
-  <si>
-    <t>woe</t>
-  </si>
-  <si>
-    <t>Weight-of-evidence</t>
-  </si>
-  <si>
-    <t>rarealleles</t>
-  </si>
-  <si>
-    <t>Rare alleles</t>
-  </si>
-  <si>
-    <t>Sjeldne alleler</t>
-  </si>
-  <si>
-    <t>normalizeimpute</t>
-  </si>
-  <si>
-    <t>Normalize after imputing</t>
-  </si>
-  <si>
-    <t>Normaliser frekvenser</t>
-  </si>
-  <si>
-    <t>Change table layout for evidence versus references (horizontal or vertical).</t>
-  </si>
-  <si>
-    <t>restore</t>
-  </si>
-  <si>
-    <t>Restore</t>
-  </si>
-  <si>
-    <t>Gjenopprett</t>
-  </si>
-  <si>
-    <t>Markernames</t>
-  </si>
-  <si>
-    <t>Marker names</t>
-  </si>
-  <si>
-    <t>Markørnavn</t>
-  </si>
-  <si>
-    <t>Añadir como Ref.</t>
-  </si>
-  <si>
-    <t>Comparaciones</t>
-  </si>
-  <si>
-    <t>Componente</t>
-  </si>
-  <si>
-    <t>Condicional(es)</t>
-  </si>
-  <si>
-    <t>Añadir/Editar refs.</t>
-  </si>
-  <si>
-    <t>Borrar de</t>
-  </si>
-  <si>
-    <t>No truncar</t>
-  </si>
-  <si>
-    <t>Lambda de altura de pico drop-in (EFM)</t>
-  </si>
-  <si>
-    <t>Gráfico de alturas alélicas esperadas</t>
-  </si>
-  <si>
-    <t>Corrección Fst/Theta (WoE)</t>
-  </si>
-  <si>
-    <t>Genotipo</t>
-  </si>
-  <si>
-    <t>Hipótesis</t>
-  </si>
-  <si>
-    <t>Marcador</t>
-  </si>
-  <si>
-    <t>Nombres de marcadores</t>
-  </si>
-  <si>
-    <t>Marcadores</t>
-  </si>
-  <si>
-    <t>Parámetros del modelo</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Num. Fallos (Hp/Hd)</t>
-  </si>
-  <si>
-    <t>Num. Iteraciones</t>
-  </si>
-  <si>
-    <t>Normalizar tras entrada</t>
-  </si>
-  <si>
-    <t>Normalizados</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>On</t>
-  </si>
-  <si>
-    <t>Cuantil LR conservativo</t>
-  </si>
-  <si>
-    <t>Alelos raros</t>
-  </si>
-  <si>
-    <t>Rango</t>
-  </si>
-  <si>
-    <t>Eliminar seleccionados</t>
-  </si>
-  <si>
-    <t>Semilla del sampler</t>
-  </si>
-  <si>
-    <t>Establecer por marcador</t>
-  </si>
-  <si>
-    <t>Mostrar perfiles individuales en Matches final</t>
-  </si>
-  <si>
-    <t>conclusión</t>
-  </si>
-  <si>
-    <t>Truncar</t>
-  </si>
-  <si>
-    <t>Parámetros del modelo (WOE)</t>
-  </si>
-  <si>
-    <t>Ejecutar WOE</t>
-  </si>
-  <si>
-    <t>Resultados de WOE</t>
-  </si>
-  <si>
-    <t>Conclusiones (WoE)</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>Genotipo inferido (alelo si bajo umbral)</t>
-  </si>
-  <si>
-    <t>Ratio de probabilidad entre el genotipo más probable y el segundo genotipo más probable</t>
-  </si>
-  <si>
-    <t>Se asume que los desconocidos son individuos no relacionados de la población seleccionada</t>
-  </si>
-  <si>
-    <t>El directorio de carpetas del caso elegido es incorrecto. El usuario puede haber seleccionado una carpeta que no contiene carpetas de casos.</t>
-  </si>
-  <si>
-    <t>El archivo que contiene la función para importar (importData function) no se ha seleccionado correctamente.</t>
-  </si>
-  <si>
-    <t>Aviso: ha seleccionado más contribuyentes que los que hay en</t>
-  </si>
-  <si>
-    <t>No se han encontrado datos para importar</t>
-  </si>
-  <si>
-    <t>Recuerde hacer click en REINICIAR antes de importar un caso nuevo!</t>
-  </si>
-  <si>
-    <t>Exportar tabla a archivo de texto</t>
-  </si>
-  <si>
-    <t>Cambiar diseño tabla a evidencias versus referencias (horizontal o vertical).</t>
-  </si>
-  <si>
-    <t>Importar datos del caso seleccionado. Alternativamente, también es posible editar el nombre del caso y hacer click en ENTER</t>
-  </si>
-  <si>
-    <t>Importar referecia(s) adicionales a la sesión seleccionando un archivo de texto (requiere formato EFM/LRmix)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activar comparaciones entre mezclas (y evidencia/s con MatchStatus vacío) y referencias. Es una búsqueda que compara con el fin de investigar, en la que se obtienen candidatos basándose en umbrales (ver ajustes de umbrales). Los resultados se muestran en los paneles siguientes, y la lista final de candidatos se muestra en Matches. </t>
-  </si>
-  <si>
-    <t>Crear un informe con los resultados realizados en la sesión. Se puede modificar el informe en “Ajustes del Informe”. Se pueden crear informes de distintos formatos (html, doc,…).</t>
-  </si>
-  <si>
-    <t>Calcular la random match probability de los perfiles de referencia</t>
-  </si>
-  <si>
-    <t>Calcula el número de alelos compartidos entre todas las referencias (idéntico por estado, IBS). Sólo se muestran los pares que ofrecen un valor por encima del umbral IBS especificado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcula el número de alelos compartidos entre todas las evidencias (concordancia). Sólo se muestran los pares en los que se obtiene un valor por encima del umbral de MAC especificado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editar nombre o alelo de cualquiera de las referencias. También es posible añadir referencias nuevas. </t>
-  </si>
-  <si>
-    <t>Reiniciar la session (todos los paneles se borran)</t>
-  </si>
-  <si>
-    <t>Truncar las casillas que tienen un valor por debajo del umbral de MAC especificado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcular el LR cuantitativo para todos los candidatos que estén por encima del umbral Qual.LR.  </t>
-  </si>
-  <si>
-    <t>Define y calcula el peso de la evidencia basado en las hipótesis definidas por el usuario. Los valores de LR también pueden tener en cuenta la corrección theta/Fst.</t>
-  </si>
-  <si>
-    <t>Separar todos los perfiles de evidencias de la matchlist que tengan al menos un perfil desconocido. La separación (deconvolution) se condicionará a los matches candidatos.</t>
-  </si>
-  <si>
-    <t>Exportar el perfil seleccionado a EFM/LRmix en formato txt.</t>
-  </si>
-  <si>
-    <t>Borrar fila en la tabla</t>
-  </si>
-  <si>
-    <t>Mostrar “ratioToNext”= probabilidad del candidato mejor clasificado dividido por la probabilidad del segundo candidato mejor clasificado, donde los candidatos son genotipos (no alelos). Se pueden extraer alelos si se encuentran por debajo del ajuste especificado para separar genotipos (DC-genotype) pero por encima del ajuste de alelo.</t>
-  </si>
-  <si>
-    <t>Mover el perfil seleccionado (la fila) a la tabla de referencias en la pestaña Datos. El usuario puede cambiar el nombre (pulsando ENTER a continuación).</t>
-  </si>
-  <si>
-    <t>Mostrar gráfica de validacion del modelo (tanto para Hp como para Hd)</t>
-  </si>
-  <si>
-    <t>Mostrar el modelo de altura de pico ajustado (bien para Hp). Los genotipos de contribuyentes desconocidos se tratan como el genotipo mejor clasificado (de la separación).</t>
-  </si>
-  <si>
-    <t>Mostrar y editar el texto del conjunto de hipótesis seleccionado. Es posible editar el texto aquí, antes de generar el informe.</t>
-  </si>
-  <si>
-    <t>cientos</t>
-  </si>
-  <si>
-    <t>miles</t>
-  </si>
-  <si>
-    <t>millones</t>
-  </si>
-  <si>
-    <t>miles de millones</t>
-  </si>
-  <si>
-    <t>billones</t>
-  </si>
-  <si>
-    <t>miles de billones</t>
-  </si>
-  <si>
-    <t>trillones</t>
-  </si>
-  <si>
-    <t>miles de trillones</t>
-  </si>
-  <si>
-    <t>cuatrillones</t>
-  </si>
-  <si>
-    <t>miles de cuatrillones</t>
-  </si>
-  <si>
-    <t>quintillones</t>
-  </si>
-  <si>
-    <t>miles de quintillones</t>
-  </si>
-  <si>
-    <t>sextillones</t>
-  </si>
-  <si>
-    <t>miles de sextillones</t>
-  </si>
-  <si>
-    <t>septillones</t>
-  </si>
-  <si>
-    <t>miles de septillones</t>
-  </si>
-  <si>
-    <t>octillones</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>Kvalitativ (LRmix)</t>
-  </si>
-  <si>
-    <t>Vis ratioToNext='sannsynligheten for mest sannsynlige kandidat delt på sannsynlighenten for den med nest høyest sannsynlighet', der kandidatene er genotyper. Enkelte alleler kan allikevel trekkes ut dersom denne disse ligger over terskel for allele-sannsynlighet.</t>
-  </si>
-  <si>
-    <t>Show estimated parameters</t>
-  </si>
-  <si>
-    <t>Vis estimerte parametre</t>
-  </si>
-  <si>
-    <t>Mostrar parámetros estimados</t>
-  </si>
-  <si>
-    <t>Show model validation plots</t>
-  </si>
-  <si>
-    <t>Vis modellvalideringsplott</t>
-  </si>
-  <si>
-    <t>Vis tilpasset høydemodell (enten for Hp eller Hd). Genotypen for ukjente bidragsytere er basert på de mest sannsynlige genotype (fra dekonvolusjon).</t>
-  </si>
-  <si>
-    <t>Show fitted peak height model (either for Hp and Hd). For unknown contributors the genotypes are conducted as the top-ranked genotype (from deconvolution).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vis og endre verbalt utsagn for valgt hypotesesett. Det er mulig å endre teksten før rapport blir generert. </t>
-  </si>
-  <si>
-    <t>kvadrillion</t>
-  </si>
-  <si>
-    <t>quadrillion</t>
-  </si>
-  <si>
-    <t>quintillion</t>
-  </si>
-  <si>
-    <t>sextillion</t>
-  </si>
-  <si>
-    <t>septillion</t>
-  </si>
-  <si>
-    <t>octillion</t>
-  </si>
-  <si>
-    <t>nonillion</t>
-  </si>
-  <si>
-    <t>decillion</t>
-  </si>
-  <si>
-    <t>undecillion</t>
-  </si>
-  <si>
-    <t>duodecillion</t>
-  </si>
-  <si>
-    <t>tredecillion</t>
-  </si>
-  <si>
-    <t>quattuordecillion</t>
-  </si>
-  <si>
-    <t>quindecillion</t>
-  </si>
-  <si>
-    <t>kvadrilliard</t>
-  </si>
-  <si>
-    <t>kvintillion</t>
-  </si>
-  <si>
-    <t>kvintilliard</t>
-  </si>
-  <si>
-    <t>sekstillion</t>
-  </si>
-  <si>
-    <t>septilliard</t>
-  </si>
-  <si>
-    <t>Vis LR per markør (basert på MLE beregninger)</t>
-  </si>
-  <si>
-    <t>Mostrar el LR por marcador (basado en calculos EFM)</t>
-  </si>
-  <si>
-    <t>Flytt valgt profil (rad) til referansetabellen I datapanelet. Brukeren kan endre navn (etterfulgt av ENTER).</t>
-  </si>
-  <si>
-    <t>Kvan.LR</t>
-  </si>
-  <si>
-    <t>Maks antall bidragsytere for kval(LRmix)</t>
-  </si>
-  <si>
-    <t>Maks antall bidragsytere for kvan(EFM)</t>
-  </si>
-  <si>
-    <t>BW stuttermodel (EFM)</t>
-  </si>
-  <si>
-    <t>Kval.LR</t>
-  </si>
-  <si>
-    <t>Eksporter tabell til tekstfil (csv)</t>
-  </si>
-  <si>
-    <t>Levar a cabo más análisis con los perfiles seleccionados (evid/refs): mostrar, borrar, exportar o llevar a cabo separación de perfiles (deconvolution)</t>
-  </si>
-  <si>
-    <t>calccons</t>
-  </si>
-  <si>
-    <t>Calc. CONS</t>
-  </si>
-  <si>
-    <t>Beregn. CONS</t>
-  </si>
-  <si>
-    <t>tip.woe.cons</t>
-  </si>
-  <si>
-    <t>tip.woe.delete</t>
-  </si>
-  <si>
-    <t>Delete selected row</t>
-  </si>
-  <si>
-    <t>Slett valgt rad</t>
-  </si>
-  <si>
-    <t>(Re)Calculate conservative LR for selected hypothesis set (MCMC)</t>
-  </si>
-  <si>
-    <t>Slett rad i tabellen</t>
-  </si>
-  <si>
-    <t>La edidencia ($evidtxt) es $LRtxt veces más probable de ocurrir si el ADN procede de $hptxt que si procede de $hdtxt.</t>
-  </si>
-  <si>
-    <t>Recalcular el LR conservador para el conjunto de hipótesis seleccionado (MCMC)</t>
-  </si>
-  <si>
-    <t>Beregn Conservative LR for valgt hypotesesett (MCMC)</t>
   </si>
 </sst>
 </file>
@@ -3551,14 +3452,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
     <col min="3" max="4" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3570,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
@@ -3578,16 +3481,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B2" t="s">
         <v>715</v>
       </c>
-      <c r="B2" t="s">
-        <v>716</v>
-      </c>
       <c r="C2" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3634,100 +3537,100 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>443</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="B7" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="C7" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="B9" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B10" t="s">
-        <v>422</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" t="s">
         <v>453</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>454</v>
       </c>
-      <c r="C11" t="s">
-        <v>455</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>684</v>
+      </c>
+      <c r="B12" t="s">
         <v>685</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>969</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>686</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3746,16 +3649,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1023</v>
+        <v>973</v>
       </c>
       <c r="B14" t="s">
-        <v>1024</v>
+        <v>974</v>
       </c>
       <c r="C14" t="s">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="D14" t="s">
-        <v>1024</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,7 +3686,7 @@
         <v>294</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3794,7 +3697,7 @@
         <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>253</v>
@@ -3844,128 +3747,128 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" t="s">
         <v>431</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="D21" s="8" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C22" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>519</v>
+      </c>
+      <c r="B23" t="s">
         <v>520</v>
-      </c>
-      <c r="B23" t="s">
-        <v>521</v>
       </c>
       <c r="C23" t="s">
         <v>203</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>437</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>478</v>
+      </c>
+      <c r="B25" t="s">
         <v>479</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="B26" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="C26" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>517</v>
+      </c>
+      <c r="B27" t="s">
+        <v>516</v>
+      </c>
+      <c r="C27" t="s">
         <v>518</v>
       </c>
-      <c r="B27" t="s">
-        <v>517</v>
-      </c>
-      <c r="C27" t="s">
-        <v>519</v>
-      </c>
       <c r="D27" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B29" t="s">
         <v>394</v>
       </c>
-      <c r="B29" t="s">
-        <v>395</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3976,7 +3879,7 @@
         <v>107</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>247</v>
@@ -3984,16 +3887,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,7 +3938,7 @@
         <v>216</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4077,7 +3980,7 @@
         <v>212</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4091,7 +3994,7 @@
         <v>214</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,7 +4008,7 @@
         <v>196</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4119,7 +4022,7 @@
         <v>197</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4133,35 +4036,35 @@
         <v>195</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,21 +4092,21 @@
         <v>332</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>694</v>
+      </c>
+      <c r="B46" t="s">
         <v>695</v>
       </c>
-      <c r="B46" t="s">
-        <v>696</v>
-      </c>
       <c r="C46" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4222,58 +4125,58 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>364</v>
+      </c>
+      <c r="B48" t="s">
         <v>365</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="D48" s="8" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B49" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C49" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B50" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C50" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>418</v>
+      </c>
+      <c r="B51" t="s">
         <v>419</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="D51" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4284,7 +4187,7 @@
         <v>151</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>281</v>
@@ -4309,7 +4212,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>324</v>
@@ -4323,7 +4226,7 @@
         <v>322</v>
       </c>
       <c r="B55" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>324</v>
@@ -4354,24 +4257,24 @@
         <v>155</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>679</v>
+      </c>
+      <c r="B58" t="s">
         <v>680</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>681</v>
       </c>
-      <c r="C58" t="s">
-        <v>682</v>
-      </c>
       <c r="D58" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4390,30 +4293,30 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>522</v>
+      </c>
+      <c r="B60" t="s">
         <v>523</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="D60" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>617</v>
+      </c>
+      <c r="B61" t="s">
         <v>618</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4446,16 +4349,16 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B64" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C64" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4488,30 +4391,30 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>687</v>
+      </c>
+      <c r="B67" t="s">
         <v>688</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>688</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>689</v>
-      </c>
-      <c r="C67" t="s">
-        <v>689</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B68" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C68" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4544,16 +4447,16 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="B71" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="C71" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4564,7 +4467,7 @@
         <v>150</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>261</v>
@@ -4578,7 +4481,7 @@
         <v>19</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>246</v>
@@ -4595,7 +4498,7 @@
         <v>315</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4614,16 +4517,16 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>443</v>
+      </c>
+      <c r="B76" t="s">
         <v>444</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="D76" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,142 +4587,142 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B81" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C81" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="B83" t="s">
-        <v>848</v>
+        <v>997</v>
       </c>
       <c r="C83" t="s">
-        <v>848</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>848</v>
+        <v>997</v>
+      </c>
+      <c r="D83" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="B84" t="s">
-        <v>849</v>
+        <v>998</v>
       </c>
       <c r="C84" t="s">
-        <v>852</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>849</v>
+        <v>1000</v>
+      </c>
+      <c r="D84" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="B85" t="s">
-        <v>850</v>
+        <v>999</v>
       </c>
       <c r="C85" t="s">
-        <v>850</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>850</v>
+        <v>999</v>
+      </c>
+      <c r="D85" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B86" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="C86" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C87" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B88" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C88" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="B89" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="C89" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B90" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C90" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4861,7 +4764,7 @@
         <v>300</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,21 +4778,21 @@
         <v>297</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>395</v>
+      </c>
+      <c r="B95" t="s">
+        <v>397</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B95" t="s">
-        <v>398</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="D95" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4897,13 +4800,13 @@
         <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4922,44 +4825,44 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B98" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C98" t="s">
-        <v>1017</v>
+        <v>967</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B99" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C99" t="s">
-        <v>1018</v>
+        <v>968</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>690</v>
+      </c>
+      <c r="B100" t="s">
         <v>691</v>
       </c>
-      <c r="B100" t="s">
-        <v>692</v>
-      </c>
       <c r="C100" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,7 +4873,7 @@
         <v>128</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>260</v>
@@ -4978,58 +4881,58 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="B102" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="C102" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B104" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C104" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B105" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C105" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,7 +4960,7 @@
         <v>188</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5076,16 +4979,16 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>708</v>
+      </c>
+      <c r="B109" t="s">
         <v>709</v>
       </c>
-      <c r="B109" t="s">
-        <v>710</v>
-      </c>
       <c r="C109" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,35 +5002,35 @@
         <v>317</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B111" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C111" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="B112" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="C112" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -5152,10 +5055,10 @@
         <v>349</v>
       </c>
       <c r="C114" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,35 +5072,35 @@
         <v>210</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="B116" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>692</v>
+      </c>
+      <c r="B117" t="s">
         <v>693</v>
       </c>
-      <c r="B117" t="s">
-        <v>694</v>
-      </c>
       <c r="C117" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5216,86 +5119,86 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B119" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C119" t="s">
         <v>172</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>407</v>
+      </c>
+      <c r="B120" t="s">
+        <v>406</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B120" t="s">
-        <v>407</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="D120" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>400</v>
+      </c>
+      <c r="B121" t="s">
         <v>401</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="D121" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="B122" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="B123" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="C123" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>404</v>
+      </c>
+      <c r="B124" t="s">
         <v>405</v>
       </c>
-      <c r="B124" t="s">
-        <v>406</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5314,1399 +5217,1399 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B126" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C126" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>449</v>
+        <v>989</v>
       </c>
       <c r="B127" t="s">
-        <v>450</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>452</v>
+        <v>990</v>
+      </c>
+      <c r="C127" t="s">
+        <v>991</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>921</v>
+        <v>992</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>993</v>
+      </c>
+      <c r="B128" t="s">
+        <v>994</v>
+      </c>
+      <c r="C128" t="s">
+        <v>995</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>448</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
+        <v>449</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>447</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="B130" t="s">
+        <v>446</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="D131" s="8" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C132" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="D132" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D133" s="8" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>391</v>
-      </c>
-      <c r="B132" t="s">
-        <v>390</v>
-      </c>
-      <c r="C132" t="s">
-        <v>392</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>153</v>
-      </c>
-      <c r="B133" t="s">
-        <v>153</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>512</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>539</v>
+        <v>390</v>
+      </c>
+      <c r="B134" t="s">
+        <v>389</v>
+      </c>
+      <c r="C134" t="s">
+        <v>391</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>569</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>701</v>
-      </c>
-      <c r="B136" t="s">
-        <v>702</v>
-      </c>
-      <c r="C136" t="s">
-        <v>769</v>
+        <v>511</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>702</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>384</v>
+        <v>89</v>
       </c>
       <c r="B137" t="s">
-        <v>380</v>
-      </c>
-      <c r="C137" t="s">
-        <v>388</v>
+        <v>10</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>385</v>
+        <v>700</v>
       </c>
       <c r="B138" t="s">
-        <v>381</v>
+        <v>701</v>
       </c>
       <c r="C138" t="s">
-        <v>389</v>
+        <v>753</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>595</v>
+        <v>701</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" t="s">
+        <v>383</v>
+      </c>
+      <c r="B139" t="s">
+        <v>379</v>
+      </c>
+      <c r="C139" t="s">
+        <v>387</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>384</v>
+      </c>
+      <c r="B140" t="s">
+        <v>380</v>
+      </c>
+      <c r="C140" t="s">
+        <v>388</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D139" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B142" t="s">
         <v>658</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C142" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="D142" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D143" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D142" s="8" t="s">
+      <c r="C144" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D144" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>369</v>
-      </c>
-      <c r="B143" t="s">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>368</v>
+      </c>
+      <c r="B145" t="s">
+        <v>374</v>
+      </c>
+      <c r="C145" t="s">
         <v>375</v>
       </c>
-      <c r="C143" t="s">
-        <v>376</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>456</v>
-      </c>
-      <c r="B144" t="s">
-        <v>457</v>
-      </c>
-      <c r="C144" t="s">
-        <v>985</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>1016</v>
-      </c>
       <c r="D145" s="8" t="s">
-        <v>255</v>
+        <v>589</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>370</v>
+        <v>455</v>
       </c>
       <c r="B146" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="C146" t="s">
-        <v>377</v>
+        <v>953</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>458</v>
-      </c>
-      <c r="B147" t="s">
-        <v>459</v>
-      </c>
-      <c r="C147" t="s">
-        <v>858</v>
+      <c r="A147" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>966</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>598</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>369</v>
+      </c>
+      <c r="B148" t="s">
+        <v>373</v>
+      </c>
+      <c r="C148" t="s">
+        <v>376</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>457</v>
+      </c>
+      <c r="B149" t="s">
+        <v>458</v>
+      </c>
+      <c r="C149" t="s">
+        <v>838</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>697</v>
+      </c>
+      <c r="B150" t="s">
         <v>698</v>
       </c>
-      <c r="B148" t="s">
-        <v>699</v>
-      </c>
-      <c r="C148" t="s">
-        <v>859</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="C150" t="s">
+        <v>839</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D149" s="8" t="s">
+      <c r="D151" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B152" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C152" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D150" s="8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>889</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="D152" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B154" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D152" s="8" t="s">
+      <c r="D154" s="8" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>428</v>
-      </c>
-      <c r="B153" t="s">
-        <v>429</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>484</v>
-      </c>
-      <c r="B154" t="s">
-        <v>485</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>54</v>
+        <v>427</v>
       </c>
       <c r="B155" t="s">
-        <v>146</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>169</v>
+        <v>428</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>272</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>55</v>
+        <v>483</v>
       </c>
       <c r="B156" t="s">
-        <v>58</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>170</v>
+        <v>484</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>840</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>273</v>
+        <v>905</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>439</v>
+        <v>54</v>
       </c>
       <c r="B157" t="s">
-        <v>441</v>
-      </c>
-      <c r="C157" t="s">
-        <v>440</v>
+        <v>146</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>926</v>
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>5</v>
+      <c r="A158" t="s">
+        <v>55</v>
+      </c>
+      <c r="B158" t="s">
+        <v>58</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>354</v>
+        <v>438</v>
       </c>
       <c r="B159" t="s">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="C159" t="s">
-        <v>358</v>
+        <v>439</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>588</v>
+        <v>906</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>308</v>
+      <c r="A160" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>553</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>110</v>
+        <v>354</v>
       </c>
       <c r="B161" t="s">
-        <v>33</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>33</v>
+        <v>352</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1001</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>248</v>
+        <v>587</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>894</v>
-      </c>
-      <c r="B162" t="s">
-        <v>895</v>
-      </c>
-      <c r="C162" t="s">
-        <v>896</v>
+      <c r="A162" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>895</v>
+        <v>552</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>148</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>148</v>
+        <v>110</v>
+      </c>
+      <c r="B163" t="s">
+        <v>33</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>149</v>
+        <v>874</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>149</v>
+        <v>875</v>
+      </c>
+      <c r="C164" t="s">
+        <v>876</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>633</v>
+        <v>875</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>648</v>
-      </c>
-      <c r="B165" t="s">
-        <v>664</v>
+        <v>148</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>666</v>
+        <v>148</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>355</v>
+        <v>149</v>
       </c>
       <c r="B166" t="s">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>356</v>
+        <v>149</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>573</v>
+        <v>632</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D167" s="8" t="s">
-        <v>229</v>
+      <c r="A167" t="s">
+        <v>647</v>
+      </c>
+      <c r="B167" t="s">
+        <v>663</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>697</v>
+        <v>355</v>
       </c>
       <c r="B168" t="s">
-        <v>700</v>
-      </c>
-      <c r="C168" t="s">
-        <v>764</v>
+        <v>357</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>927</v>
+        <v>572</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>64</v>
-      </c>
-      <c r="B169" t="s">
-        <v>66</v>
-      </c>
-      <c r="C169" t="s">
-        <v>175</v>
+      <c r="A169" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>65</v>
+        <v>696</v>
       </c>
       <c r="B170" t="s">
-        <v>61</v>
+        <v>699</v>
       </c>
       <c r="C170" t="s">
-        <v>176</v>
+        <v>748</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>236</v>
+        <v>907</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>162</v>
+      <c r="A171" t="s">
+        <v>64</v>
+      </c>
+      <c r="B171" t="s">
+        <v>66</v>
+      </c>
+      <c r="C171" t="s">
+        <v>175</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>629</v>
+        <v>235</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>65</v>
+      </c>
+      <c r="B172" t="s">
+        <v>61</v>
+      </c>
+      <c r="C172" t="s">
+        <v>176</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>703</v>
+      </c>
+      <c r="B174" t="s">
         <v>704</v>
       </c>
-      <c r="B172" t="s">
-        <v>705</v>
-      </c>
-      <c r="C172" t="s">
-        <v>765</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="C174" t="s">
+        <v>749</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>83</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B175" t="s">
         <v>84</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C175" t="s">
         <v>288</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D175" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="D176" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B177" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D177" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D176" s="8" t="s">
+      <c r="D178" s="8" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="B177" t="s">
-        <v>646</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>793</v>
-      </c>
-      <c r="B178" t="s">
-        <v>794</v>
-      </c>
-      <c r="C178" t="s">
-        <v>795</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>125</v>
+        <v>656</v>
       </c>
       <c r="B179" t="s">
-        <v>124</v>
+        <v>645</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>209</v>
+        <v>646</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>258</v>
+        <v>909</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>48</v>
+        <v>777</v>
       </c>
       <c r="B180" t="s">
-        <v>49</v>
+        <v>778</v>
       </c>
       <c r="C180" t="s">
-        <v>218</v>
+        <v>779</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>628</v>
+        <v>778</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>649</v>
+      <c r="A181" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="B181" t="s">
-        <v>651</v>
-      </c>
-      <c r="C181" t="s">
-        <v>653</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>655</v>
+        <v>124</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B182" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C182" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>268</v>
+        <v>627</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>45</v>
+        <v>648</v>
       </c>
       <c r="B183" t="s">
-        <v>50</v>
+        <v>650</v>
       </c>
       <c r="C183" t="s">
-        <v>220</v>
-      </c>
-      <c r="D183" s="8" t="s">
-        <v>267</v>
+        <v>652</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>668</v>
+        <v>46</v>
       </c>
       <c r="B184" t="s">
-        <v>667</v>
+        <v>51</v>
       </c>
       <c r="C184" t="s">
-        <v>861</v>
+        <v>221</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>667</v>
+        <v>268</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C185" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>650</v>
+        <v>667</v>
       </c>
       <c r="B186" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="C186" t="s">
-        <v>654</v>
-      </c>
-      <c r="D186" s="11" t="s">
-        <v>656</v>
+        <v>841</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>717</v>
+        <v>47</v>
       </c>
       <c r="B187" t="s">
-        <v>717</v>
+        <v>52</v>
       </c>
       <c r="C187" t="s">
-        <v>862</v>
-      </c>
-      <c r="D187" s="12" t="s">
-        <v>930</v>
+        <v>222</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>468</v>
+        <v>649</v>
       </c>
       <c r="B188" t="s">
-        <v>464</v>
+        <v>651</v>
       </c>
       <c r="C188" t="s">
-        <v>477</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>635</v>
+        <v>653</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>59</v>
+        <v>716</v>
       </c>
       <c r="B189" t="s">
-        <v>60</v>
+        <v>716</v>
       </c>
       <c r="C189" t="s">
-        <v>173</v>
-      </c>
-      <c r="D189" s="8" t="s">
-        <v>233</v>
+        <v>842</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>85</v>
+        <v>467</v>
       </c>
       <c r="B190" t="s">
-        <v>86</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>178</v>
+        <v>463</v>
+      </c>
+      <c r="C190" t="s">
+        <v>476</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>237</v>
+        <v>634</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>425</v>
+        <v>59</v>
       </c>
       <c r="B191" t="s">
-        <v>426</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>427</v>
+        <v>60</v>
+      </c>
+      <c r="C191" t="s">
+        <v>173</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>559</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>301</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>302</v>
+        <v>85</v>
+      </c>
+      <c r="B192" t="s">
+        <v>86</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>559</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>424</v>
+      </c>
+      <c r="B193" t="s">
+        <v>425</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>301</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>109</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B195" t="s">
         <v>35</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D193" s="8" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="D195" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>547</v>
-      </c>
-      <c r="B196" t="s">
-        <v>546</v>
-      </c>
-      <c r="C196" t="s">
-        <v>672</v>
-      </c>
       <c r="D196" s="8" t="s">
-        <v>603</v>
+        <v>644</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>415</v>
-      </c>
-      <c r="B197" t="s">
-        <v>416</v>
-      </c>
-      <c r="C197" t="s">
-        <v>350</v>
+      <c r="A197" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>732</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>585</v>
+        <v>733</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>348</v>
+        <v>546</v>
       </c>
       <c r="B198" t="s">
-        <v>347</v>
+        <v>545</v>
       </c>
       <c r="C198" t="s">
-        <v>351</v>
+        <v>671</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>548</v>
+        <v>414</v>
       </c>
       <c r="B199" t="s">
-        <v>551</v>
+        <v>415</v>
       </c>
       <c r="C199" t="s">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>412</v>
+        <v>348</v>
       </c>
       <c r="B200" t="s">
-        <v>412</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>413</v>
+        <v>347</v>
+      </c>
+      <c r="C200" t="s">
+        <v>351</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>547</v>
+      </c>
+      <c r="B201" t="s">
+        <v>550</v>
+      </c>
+      <c r="C201" t="s">
+        <v>549</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>411</v>
+      </c>
+      <c r="B202" t="s">
+        <v>411</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>508</v>
+      </c>
+      <c r="B203" t="s">
         <v>509</v>
       </c>
-      <c r="B201" t="s">
-        <v>510</v>
-      </c>
-      <c r="C201" t="s">
-        <v>537</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
+      <c r="C203" t="s">
+        <v>536</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B204" t="s">
         <v>127</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="D202" s="8" t="s">
+      <c r="C204" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D204" s="8" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="B203" t="s">
-        <v>886</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>755</v>
-      </c>
-      <c r="B204" t="s">
-        <v>756</v>
-      </c>
-      <c r="C204" t="s">
-        <v>865</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>801</v>
+        <v>865</v>
       </c>
       <c r="B205" t="s">
-        <v>802</v>
-      </c>
-      <c r="C205" t="s">
-        <v>864</v>
+        <v>866</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>933</v>
+        <v>866</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>739</v>
+      </c>
+      <c r="B206" t="s">
+        <v>740</v>
+      </c>
+      <c r="C206" t="s">
+        <v>845</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B207" t="s">
+        <v>786</v>
+      </c>
+      <c r="C207" t="s">
+        <v>844</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>675</v>
+      </c>
+      <c r="B208" t="s">
         <v>676</v>
       </c>
-      <c r="B206" t="s">
-        <v>677</v>
-      </c>
-      <c r="C206" t="s">
-        <v>884</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>750</v>
-      </c>
-      <c r="B207" t="s">
-        <v>751</v>
-      </c>
-      <c r="C207" t="s">
-        <v>752</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>291</v>
+      <c r="C208" t="s">
+        <v>864</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>555</v>
+        <v>914</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>41</v>
+        <v>734</v>
       </c>
       <c r="B209" t="s">
-        <v>43</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>936</v>
+        <v>735</v>
+      </c>
+      <c r="C209" t="s">
+        <v>736</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>711</v>
-      </c>
-      <c r="B210" t="s">
-        <v>713</v>
-      </c>
-      <c r="C210" t="s">
-        <v>791</v>
+      <c r="A210" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>937</v>
+        <v>554</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>712</v>
+        <v>41</v>
       </c>
       <c r="B211" t="s">
-        <v>714</v>
-      </c>
-      <c r="C211" t="s">
-        <v>792</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>938</v>
+        <v>43</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="B212" t="s">
-        <v>762</v>
+        <v>712</v>
       </c>
       <c r="C212" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>503</v>
+        <v>711</v>
       </c>
       <c r="B213" t="s">
-        <v>502</v>
+        <v>713</v>
       </c>
       <c r="C213" t="s">
-        <v>530</v>
+        <v>776</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>611</v>
+        <v>918</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>514</v>
+        <v>745</v>
       </c>
       <c r="B214" t="s">
-        <v>513</v>
+        <v>746</v>
       </c>
       <c r="C214" t="s">
-        <v>533</v>
+        <v>755</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>612</v>
+        <v>919</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="B215" t="s">
-        <v>616</v>
+        <v>501</v>
       </c>
       <c r="C215" t="s">
-        <v>487</v>
+        <v>529</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>334</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>333</v>
+        <v>513</v>
+      </c>
+      <c r="B216" t="s">
+        <v>512</v>
       </c>
       <c r="C216" t="s">
-        <v>335</v>
+        <v>532</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>287</v>
+        <v>485</v>
       </c>
       <c r="B217" t="s">
-        <v>286</v>
+        <v>615</v>
       </c>
       <c r="C217" t="s">
-        <v>309</v>
+        <v>486</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>940</v>
+        <v>642</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>310</v>
-      </c>
-      <c r="B218" t="s">
-        <v>311</v>
+        <v>334</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="C218" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>941</v>
+        <v>641</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>496</v>
+        <v>287</v>
       </c>
       <c r="B219" t="s">
-        <v>495</v>
+        <v>286</v>
       </c>
       <c r="C219" t="s">
-        <v>529</v>
+        <v>309</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>644</v>
+        <v>920</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="3" t="s">
-        <v>341</v>
+      <c r="A220" t="s">
+        <v>310</v>
       </c>
       <c r="B220" t="s">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c r="C220" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>639</v>
+        <v>921</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="B221" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="C221" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>614</v>
+        <v>643</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>508</v>
+      <c r="A222" s="3" t="s">
+        <v>341</v>
       </c>
       <c r="B222" t="s">
-        <v>532</v>
+        <v>117</v>
       </c>
       <c r="C222" t="s">
-        <v>531</v>
+        <v>284</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>942</v>
+        <v>638</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="B223" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="C223" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>661</v>
+        <v>507</v>
       </c>
       <c r="B224" t="s">
-        <v>662</v>
+        <v>531</v>
       </c>
       <c r="C224" t="s">
-        <v>663</v>
+        <v>530</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>943</v>
+        <v>922</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>338</v>
+        <v>481</v>
       </c>
       <c r="B225" t="s">
-        <v>345</v>
+        <v>482</v>
       </c>
       <c r="C225" t="s">
-        <v>346</v>
+        <v>487</v>
       </c>
       <c r="D225" s="8" t="s">
         <v>606</v>
@@ -6714,447 +6617,447 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>490</v>
+        <v>660</v>
       </c>
       <c r="B226" t="s">
-        <v>489</v>
+        <v>661</v>
       </c>
       <c r="C226" t="s">
-        <v>526</v>
+        <v>662</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>608</v>
+        <v>923</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B227" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C227" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>944</v>
+        <v>605</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>340</v>
+        <v>489</v>
       </c>
       <c r="B228" t="s">
-        <v>337</v>
+        <v>488</v>
       </c>
       <c r="C228" t="s">
-        <v>339</v>
+        <v>525</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>497</v>
+        <v>319</v>
       </c>
       <c r="B229" t="s">
-        <v>500</v>
+        <v>318</v>
       </c>
       <c r="C229" t="s">
-        <v>498</v>
+        <v>336</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>641</v>
+        <v>924</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B230" t="s">
-        <v>501</v>
+        <v>337</v>
       </c>
       <c r="C230" t="s">
+        <v>339</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>496</v>
+      </c>
+      <c r="B231" t="s">
         <v>499</v>
       </c>
-      <c r="D230" s="8" t="s">
+      <c r="C231" t="s">
+        <v>497</v>
+      </c>
+      <c r="D231" s="8" t="s">
         <v>640</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>492</v>
+        <v>320</v>
       </c>
       <c r="B232" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C232" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>609</v>
+        <v>639</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>494</v>
-      </c>
-      <c r="B233" t="s">
-        <v>493</v>
-      </c>
-      <c r="C233" t="s">
-        <v>528</v>
+      <c r="A233" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="B234" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="C234" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>818</v>
+        <v>493</v>
       </c>
       <c r="B235" t="s">
-        <v>819</v>
+        <v>492</v>
       </c>
       <c r="C235" t="s">
-        <v>1021</v>
+        <v>527</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>945</v>
+        <v>609</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>803</v>
+        <v>515</v>
       </c>
       <c r="B236" t="s">
-        <v>893</v>
+        <v>514</v>
       </c>
       <c r="C236" t="s">
-        <v>867</v>
+        <v>533</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>946</v>
+        <v>612</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B237" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="C237" t="s">
-        <v>868</v>
+        <v>971</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="B238" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="C238" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="B239" t="s">
-        <v>847</v>
+        <v>813</v>
       </c>
       <c r="C239" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="B240" t="s">
-        <v>831</v>
+        <v>814</v>
       </c>
       <c r="C240" t="s">
-        <v>871</v>
+        <v>849</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="B241" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C241" t="s">
-        <v>872</v>
-      </c>
-      <c r="D241" s="13" t="s">
-        <v>1022</v>
+        <v>850</v>
+      </c>
+      <c r="D241" s="8" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="B242" t="s">
-        <v>873</v>
+        <v>815</v>
       </c>
       <c r="C242" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="B243" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="C243" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
       <c r="D243" s="13" t="s">
-        <v>952</v>
+        <v>972</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="B244" t="s">
-        <v>833</v>
+        <v>853</v>
       </c>
       <c r="C244" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="B245" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
       <c r="C245" t="s">
-        <v>877</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>954</v>
+        <v>855</v>
+      </c>
+      <c r="D245" s="13" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="B246" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="C246" t="s">
-        <v>878</v>
-      </c>
-      <c r="D246" s="13" t="s">
-        <v>955</v>
+        <v>856</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="B247" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="C247" t="s">
-        <v>879</v>
-      </c>
-      <c r="D247" s="13" t="s">
-        <v>956</v>
+        <v>857</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="B248" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="C248" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
       <c r="D248" s="13" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="B249" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="C249" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="B250" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="C250" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="D250" s="13" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="B251" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="C251" t="s">
-        <v>883</v>
+        <v>861</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="B252" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="C252" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>961</v>
+        <v>862</v>
+      </c>
+      <c r="D252" s="13" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="B253" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="C253" t="s">
-        <v>986</v>
+        <v>863</v>
       </c>
       <c r="D253" s="13" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="B254" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
       <c r="C254" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D254" s="13" t="s">
-        <v>963</v>
+        <v>981</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="B255" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="C255" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>1014</v>
+        <v>954</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="B256" t="s">
-        <v>987</v>
+        <v>828</v>
       </c>
       <c r="C256" t="s">
-        <v>988</v>
-      </c>
-      <c r="D256" s="8" t="s">
-        <v>989</v>
+        <v>965</v>
+      </c>
+      <c r="D256" s="13" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="B257" t="s">
-        <v>990</v>
+        <v>829</v>
       </c>
       <c r="C257" t="s">
-        <v>991</v>
+        <v>963</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>964</v>
@@ -7162,329 +7065,203 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="B258" t="s">
-        <v>993</v>
+        <v>955</v>
       </c>
       <c r="C258" t="s">
-        <v>992</v>
+        <v>956</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="B259" t="s">
-        <v>846</v>
+        <v>958</v>
       </c>
       <c r="C259" t="s">
-        <v>994</v>
+        <v>959</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>1026</v>
+        <v>811</v>
       </c>
       <c r="B260" t="s">
-        <v>1030</v>
+        <v>961</v>
       </c>
       <c r="C260" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>1033</v>
+        <v>960</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>1027</v>
+        <v>812</v>
       </c>
       <c r="B261" t="s">
-        <v>1028</v>
+        <v>830</v>
       </c>
       <c r="C261" t="s">
-        <v>1029</v>
+        <v>962</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>757</v>
+        <v>976</v>
       </c>
       <c r="B262" t="s">
-        <v>778</v>
+        <v>980</v>
       </c>
       <c r="C262" t="s">
-        <v>779</v>
-      </c>
-      <c r="D262" s="8" t="s">
-        <v>1032</v>
+        <v>984</v>
+      </c>
+      <c r="D262" s="15" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>718</v>
+        <v>977</v>
       </c>
       <c r="B263" t="s">
-        <v>719</v>
+        <v>978</v>
       </c>
       <c r="C263" t="s">
-        <v>720</v>
+        <v>979</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>967</v>
+        <v>941</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="B264" t="s">
-        <v>722</v>
+        <v>762</v>
       </c>
       <c r="C264" t="s">
-        <v>723</v>
+        <v>763</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B265" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="C265" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B266" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="C266" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B267" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="C267" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>731</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>996</v>
+        <v>725</v>
+      </c>
+      <c r="B268" t="s">
+        <v>726</v>
       </c>
       <c r="C268" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>733</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>997</v>
+        <v>728</v>
+      </c>
+      <c r="B269" t="s">
+        <v>729</v>
       </c>
       <c r="C269" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>734</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>998</v>
+        <v>985</v>
+      </c>
+      <c r="B270" t="s">
+        <v>986</v>
       </c>
       <c r="C270" t="s">
-        <v>735</v>
+        <v>987</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>974</v>
+        <v>988</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>995</v>
-      </c>
-      <c r="D271" s="8" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>737</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C272" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D272" s="8" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>738</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D273" s="8" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>739</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C274" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D274" s="8" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>740</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C275" s="7" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D275" s="8" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>741</v>
-      </c>
-      <c r="B276" s="7" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C276" t="s">
-        <v>742</v>
-      </c>
-      <c r="D276" s="8" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>743</v>
-      </c>
-      <c r="B277" s="7" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C277" s="7" t="s">
-        <v>999</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>744</v>
-      </c>
-      <c r="B278" s="7" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D278" s="8" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>745</v>
-      </c>
-      <c r="B279" s="7" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C279" s="7" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D279" s="8" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>775</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="C280" t="s">
-        <v>777</v>
-      </c>
-      <c r="D280" s="14" t="s">
-        <v>984</v>
+        <v>760</v>
+      </c>
+      <c r="C271" t="s">
+        <v>761</v>
+      </c>
+      <c r="D271" s="14" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D209">
-    <sortCondition ref="A209"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D211">
+    <sortCondition ref="A211"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/inst/Language.xlsx
+++ b/inst/Language.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyvbl\Dropbox\Forensic\MixtureProj\myDev\casesolver\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE1D886-6B8F-43C0-B8E2-710E69233927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B1AD8D-01FB-4148-A372-F6EAF6B9FA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="2055" windowWidth="25575" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="1010">
   <si>
     <t>Key</t>
   </si>
@@ -1673,9 +1673,6 @@
     <t>numoptim</t>
   </si>
   <si>
-    <t>Start with one contributor when estimating contrs</t>
-  </si>
-  <si>
     <t>useoneaslowestnoc</t>
   </si>
   <si>
@@ -1685,12 +1682,6 @@
     <t>Antall optimaliseringer (EFM)</t>
   </si>
   <si>
-    <t>Bruk SNP modul (alltid 3 bidragsytere)</t>
-  </si>
-  <si>
-    <t>Use SNP module (always 3 contributors)</t>
-  </si>
-  <si>
     <t>Norwegian</t>
   </si>
   <si>
@@ -1847,9 +1838,6 @@
     <t>Empezar con un contribuyente cuando se estimen los contribuyentes</t>
   </si>
   <si>
-    <t>Usar módulo SNP (siempre 3 contribuyentes)</t>
-  </si>
-  <si>
     <t>Quiere guardar el proyecto?</t>
   </si>
   <si>
@@ -3042,6 +3030,42 @@
   </si>
   <si>
     <t>Rapport for sak</t>
+  </si>
+  <si>
+    <t>useEFMex</t>
+  </si>
+  <si>
+    <t>Whether to use EFMex</t>
+  </si>
+  <si>
+    <t>Samsvar</t>
+  </si>
+  <si>
+    <t>useMAC</t>
+  </si>
+  <si>
+    <t>Whether to use MAC (NOC)</t>
+  </si>
+  <si>
+    <t>Bruke EFMex metoden</t>
+  </si>
+  <si>
+    <t>Bruke MAC (NOC)</t>
+  </si>
+  <si>
+    <t>Start est. NOC as 1</t>
+  </si>
+  <si>
+    <t>Use SNP module (always NOC=3)</t>
+  </si>
+  <si>
+    <t>Bruk SNP modul (alltid NOC=3)</t>
+  </si>
+  <si>
+    <t>Usar módulo SNP (siempre NOC=3)</t>
+  </si>
+  <si>
+    <t>Whether to use EFMex method</t>
   </si>
 </sst>
 </file>
@@ -3112,25 +3136,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3156,9 +3172,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013–2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3196,7 +3212,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013–2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3302,7 +3318,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013–2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3444,7 +3460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3452,10 +3468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D271"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,72 +3482,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D1" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C2" t="s">
-        <v>754</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>880</v>
+        <v>750</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3539,28 +3555,28 @@
       <c r="A6" t="s">
         <v>441</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>442</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>442</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>570</v>
+      <c r="D6" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B7" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="C7" t="s">
-        <v>780</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>780</v>
+        <v>776</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3573,22 +3589,22 @@
       <c r="C8" t="s">
         <v>472</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>599</v>
+      <c r="D8" s="2" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B9" t="s">
-        <v>742</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>744</v>
+        <v>738</v>
+      </c>
+      <c r="C9" t="s">
+        <v>739</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3598,11 +3614,11 @@
       <c r="B10" t="s">
         <v>421</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>423</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>578</v>
+      <c r="D10" s="2" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3615,22 +3631,22 @@
       <c r="C11" t="s">
         <v>454</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>595</v>
+      <c r="D11" s="2" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B12" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C12" t="s">
-        <v>969</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>686</v>
+        <v>965</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3643,50 +3659,50 @@
       <c r="C13" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B14" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C14" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D14" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="2" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>292</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>293</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>294</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>555</v>
+      <c r="D16" s="2" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3696,10 +3712,10 @@
       <c r="B17" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>434</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="2" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3710,10 +3726,10 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="2" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3724,10 +3740,10 @@
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>202</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="2" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3738,10 +3754,10 @@
       <c r="B20" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="2" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3752,25 +3768,25 @@
       <c r="B21" t="s">
         <v>431</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>432</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>881</v>
+      <c r="D21" s="2" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B22" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C22" t="s">
-        <v>674</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>882</v>
+        <v>670</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3781,24 +3797,24 @@
         <v>520</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>573</v>
+        <v>1000</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>435</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>436</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>477</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>574</v>
+      <c r="D24" s="2" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3808,25 +3824,25 @@
       <c r="B25" t="s">
         <v>479</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>480</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>575</v>
+      <c r="D25" s="2" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="B26" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C26" t="s">
-        <v>768</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>883</v>
+        <v>764</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3839,8 +3855,8 @@
       <c r="C27" t="s">
         <v>518</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>582</v>
+      <c r="D27" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3853,63 +3869,63 @@
       <c r="C28" t="s">
         <v>537</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>581</v>
+      <c r="D28" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>393</v>
       </c>
       <c r="B29" t="s">
         <v>394</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>392</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>569</v>
+      <c r="D29" s="2" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>413</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="2" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>416</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>417</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>433</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>567</v>
+      <c r="D31" s="2" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3920,10 +3936,10 @@
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="2" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3934,11 +3950,11 @@
       <c r="B34" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>884</v>
+      <c r="D34" s="2" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3948,10 +3964,10 @@
       <c r="B35" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="2" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3962,10 +3978,10 @@
       <c r="B36" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>217</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="2" t="s">
         <v>265</v>
       </c>
     </row>
@@ -3976,11 +3992,11 @@
       <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>212</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>625</v>
+      <c r="D37" s="2" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3990,67 +4006,67 @@
       <c r="B38" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>214</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>626</v>
+      <c r="D38" s="2" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>196</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>565</v>
+      <c r="D39" s="2" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>566</v>
+      <c r="D40" s="2" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>564</v>
+      <c r="D41" s="2" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>624</v>
+      <c r="A42" t="s">
+        <v>617</v>
+      </c>
+      <c r="B42" t="s">
+        <v>618</v>
+      </c>
+      <c r="C42" t="s">
+        <v>619</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,8 +4079,8 @@
       <c r="C43" t="s">
         <v>475</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>633</v>
+      <c r="D43" s="2" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4077,7 +4093,7 @@
       <c r="C44" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -4091,35 +4107,35 @@
       <c r="C45" t="s">
         <v>332</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>885</v>
+      <c r="D45" s="2" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B46" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C46" t="s">
-        <v>832</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>695</v>
+        <v>828</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="2" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4130,11 +4146,11 @@
       <c r="B48" t="s">
         <v>365</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>366</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>886</v>
+      <c r="D48" s="2" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4147,8 +4163,8 @@
       <c r="C49" t="s">
         <v>474</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>887</v>
+      <c r="D49" s="2" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,8 +4177,8 @@
       <c r="C50" t="s">
         <v>473</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>600</v>
+      <c r="D50" s="2" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4172,11 +4188,11 @@
       <c r="B51" t="s">
         <v>419</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>420</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>576</v>
+      <c r="D51" s="2" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4186,24 +4202,24 @@
       <c r="B52" t="s">
         <v>151</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>437</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="2" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>198</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4212,12 +4228,12 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>668</v>
-      </c>
-      <c r="C54" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C54" t="s">
         <v>324</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4226,12 +4242,12 @@
         <v>322</v>
       </c>
       <c r="B55" t="s">
-        <v>669</v>
-      </c>
-      <c r="C55" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C55" t="s">
         <v>324</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="2" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4242,10 +4258,10 @@
       <c r="B56" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>190</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="2" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4256,38 +4272,38 @@
       <c r="B57" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>399</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>888</v>
+      <c r="D57" s="2" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B58" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C58" t="s">
-        <v>681</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>680</v>
+        <v>677</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>158</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4298,25 +4314,25 @@
       <c r="B60" t="s">
         <v>523</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>524</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>563</v>
+      <c r="D60" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B61" t="s">
-        <v>618</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>620</v>
+        <v>614</v>
+      </c>
+      <c r="C61" t="s">
+        <v>615</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,7 +4345,7 @@
       <c r="C62" t="s">
         <v>177</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="2" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4340,25 +4356,25 @@
       <c r="B63" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>144</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="2" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B64" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C64" t="s">
-        <v>846</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>889</v>
+        <v>842</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4368,10 +4384,10 @@
       <c r="B65" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="2" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4382,39 +4398,39 @@
       <c r="B66" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B67" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C67" t="s">
-        <v>688</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>689</v>
+        <v>684</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B68" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C68" t="s">
-        <v>706</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>890</v>
+        <v>702</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4427,36 +4443,36 @@
       <c r="C69" t="s">
         <v>328</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="2" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>207</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="2" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B71" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C71" t="s">
-        <v>756</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>891</v>
+        <v>752</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,24 +4482,24 @@
       <c r="B72" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="D72" s="8" t="s">
+      <c r="C72" t="s">
+        <v>666</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>371</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="2" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4497,8 +4513,8 @@
       <c r="C74" t="s">
         <v>315</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>630</v>
+      <c r="D74" s="2" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4508,10 +4524,10 @@
       <c r="B75" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>215</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="2" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4522,11 +4538,11 @@
       <c r="B76" t="s">
         <v>444</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" t="s">
         <v>445</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>631</v>
+      <c r="D76" s="2" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4536,58 +4552,58 @@
       <c r="B77" t="s">
         <v>314</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" t="s">
         <v>314</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>185</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>93</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="2" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>131</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="2" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B81" t="s">
         <v>505</v>
@@ -4595,7 +4611,7 @@
       <c r="C81" t="s">
         <v>505</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="2" t="s">
         <v>505</v>
       </c>
     </row>
@@ -4603,70 +4619,70 @@
       <c r="A82" t="s">
         <v>510</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>510</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" t="s">
         <v>510</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B83" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C83" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="D83" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>765</v>
+      <c r="A84" t="s">
+        <v>761</v>
       </c>
       <c r="B84" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C84" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="D84" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B85" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C85" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D85" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B86" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C86" t="s">
-        <v>738</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>737</v>
+        <v>734</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4679,106 +4695,106 @@
       <c r="C87" t="s">
         <v>370</v>
       </c>
-      <c r="D87" s="8" t="s">
-        <v>588</v>
+      <c r="D87" s="2" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="B88" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C88" t="s">
-        <v>750</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>892</v>
+        <v>746</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="B89" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C89" t="s">
-        <v>879</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>893</v>
+        <v>875</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B90" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C90" t="s">
-        <v>751</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>894</v>
+        <v>747</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>95</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" t="s">
         <v>183</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>13</v>
       </c>
       <c r="C92" t="s">
         <v>183</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>298</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>299</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" t="s">
         <v>300</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>560</v>
+      <c r="D93" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>296</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s">
         <v>297</v>
       </c>
-      <c r="D94" s="8" t="s">
-        <v>559</v>
+      <c r="D94" s="2" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4788,11 +4804,11 @@
       <c r="B95" t="s">
         <v>397</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" t="s">
         <v>396</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>562</v>
+      <c r="D95" s="2" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4802,24 +4818,24 @@
       <c r="B96" t="s">
         <v>410</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" t="s">
         <v>409</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>561</v>
+      <c r="D96" s="2" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" t="s">
         <v>184</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="2" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4831,10 +4847,10 @@
         <v>539</v>
       </c>
       <c r="C98" t="s">
-        <v>967</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>635</v>
+        <v>963</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4845,52 +4861,52 @@
         <v>541</v>
       </c>
       <c r="C99" t="s">
-        <v>968</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>636</v>
+        <v>964</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B100" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C100" t="s">
-        <v>691</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>691</v>
+        <v>687</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" t="s">
         <v>129</v>
       </c>
       <c r="B101" t="s">
         <v>128</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" t="s">
         <v>398</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="2" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B102" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C102" t="s">
-        <v>833</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>784</v>
+        <v>829</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4903,8 +4919,8 @@
       <c r="C103" t="s">
         <v>386</v>
       </c>
-      <c r="D103" s="8" t="s">
-        <v>592</v>
+      <c r="D103" s="2" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4917,22 +4933,22 @@
       <c r="C104" t="s">
         <v>385</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>591</v>
+      <c r="D104" s="2" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B105" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C105" t="s">
-        <v>678</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>672</v>
+        <v>674</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4942,25 +4958,25 @@
       <c r="B106" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" t="s">
         <v>187</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="2" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>157</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>122</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" t="s">
         <v>188</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>835</v>
+      <c r="D107" s="2" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4970,25 +4986,25 @@
       <c r="B108" t="s">
         <v>88</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" t="s">
         <v>179</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="2" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B109" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C109" t="s">
-        <v>752</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>895</v>
+        <v>748</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>891</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4998,11 +5014,11 @@
       <c r="B110" t="s">
         <v>305</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" t="s">
         <v>317</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>629</v>
+      <c r="D110" s="2" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -5015,35 +5031,35 @@
       <c r="C111" t="s">
         <v>471</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>598</v>
+      <c r="D111" s="2" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B112" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C112" t="s">
-        <v>767</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>767</v>
+        <v>763</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" t="s">
         <v>106</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" t="s">
         <v>23</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" t="s">
         <v>199</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -5055,10 +5071,10 @@
         <v>349</v>
       </c>
       <c r="C114" t="s">
-        <v>836</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>586</v>
+        <v>832</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5068,39 +5084,39 @@
       <c r="B115" t="s">
         <v>137</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" t="s">
         <v>210</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>896</v>
+      <c r="D115" s="2" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B116" t="s">
-        <v>773</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>897</v>
+        <v>769</v>
+      </c>
+      <c r="C116" t="s">
+        <v>768</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B117" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C117" t="s">
-        <v>747</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>898</v>
+        <v>743</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5110,39 +5126,39 @@
       <c r="B118" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" t="s">
         <v>193</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B119" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C119" t="s">
         <v>172</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D119" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>407</v>
       </c>
       <c r="B120" t="s">
         <v>406</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" t="s">
         <v>408</v>
       </c>
-      <c r="D120" s="10" t="s">
-        <v>580</v>
+      <c r="D120" s="2" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5152,39 +5168,39 @@
       <c r="B121" t="s">
         <v>401</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" t="s">
         <v>402</v>
       </c>
-      <c r="D121" s="8" t="s">
-        <v>774</v>
+      <c r="D121" s="2" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="B122" t="s">
-        <v>871</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>899</v>
+        <v>867</v>
+      </c>
+      <c r="C122" t="s">
+        <v>868</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B123" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C123" t="s">
-        <v>837</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>900</v>
+        <v>833</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -5194,11 +5210,11 @@
       <c r="B124" t="s">
         <v>405</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" t="s">
         <v>403</v>
       </c>
-      <c r="D124" s="8" t="s">
-        <v>579</v>
+      <c r="D124" s="2" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,7 +5227,7 @@
       <c r="C125" t="s">
         <v>172</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D125" s="2" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5223,38 +5239,38 @@
         <v>543</v>
       </c>
       <c r="C126" t="s">
-        <v>548</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>601</v>
+        <v>547</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="B127" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C127" t="s">
-        <v>991</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>992</v>
+        <v>987</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B128" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C128" t="s">
-        <v>995</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>996</v>
+        <v>991</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5264,11 +5280,11 @@
       <c r="B129" t="s">
         <v>449</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" t="s">
         <v>451</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>901</v>
+      <c r="D129" s="2" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5278,52 +5294,52 @@
       <c r="B130" t="s">
         <v>446</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" t="s">
         <v>450</v>
       </c>
-      <c r="D130" s="8" t="s">
-        <v>902</v>
+      <c r="D130" s="2" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>71</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" t="s">
         <v>73</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" t="s">
         <v>163</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="D131" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="A132" t="s">
         <v>325</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
         <v>326</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" t="s">
         <v>327</v>
       </c>
-      <c r="D132" s="8" t="s">
-        <v>553</v>
+      <c r="D132" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" t="s">
         <v>94</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" t="s">
         <v>94</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" t="s">
         <v>182</v>
       </c>
-      <c r="D133" s="8" t="s">
+      <c r="D133" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5337,8 +5353,8 @@
       <c r="C134" t="s">
         <v>391</v>
       </c>
-      <c r="D134" s="8" t="s">
-        <v>556</v>
+      <c r="D134" s="2" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,10 +5364,10 @@
       <c r="B135" t="s">
         <v>153</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" t="s">
         <v>211</v>
       </c>
-      <c r="D135" s="8" t="s">
+      <c r="D135" s="2" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5359,14 +5375,14 @@
       <c r="A136" t="s">
         <v>511</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" t="s">
         <v>506</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" t="s">
         <v>538</v>
       </c>
-      <c r="D136" s="8" t="s">
-        <v>571</v>
+      <c r="D136" s="2" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5376,25 +5392,25 @@
       <c r="B137" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" t="s">
         <v>205</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>568</v>
+      <c r="D137" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B138" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C138" t="s">
-        <v>753</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>701</v>
+        <v>749</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,8 +5423,8 @@
       <c r="C139" t="s">
         <v>387</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>593</v>
+      <c r="D139" s="2" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5421,63 +5437,63 @@
       <c r="C140" t="s">
         <v>388</v>
       </c>
-      <c r="D140" s="8" t="s">
-        <v>594</v>
+      <c r="D140" s="2" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" t="s">
         <v>147</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" t="s">
         <v>147</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" t="s">
         <v>171</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="D141" s="2" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>657</v>
+      <c r="A142" t="s">
+        <v>653</v>
       </c>
       <c r="B142" t="s">
-        <v>658</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>658</v>
+        <v>654</v>
+      </c>
+      <c r="C142" t="s">
+        <v>655</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>76</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" t="s">
         <v>165</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="D143" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>132</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="D144" s="8" t="s">
+      <c r="C144" t="s">
+        <v>966</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5491,8 +5507,8 @@
       <c r="C145" t="s">
         <v>375</v>
       </c>
-      <c r="D145" s="8" t="s">
-        <v>589</v>
+      <c r="D145" s="2" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5503,23 +5519,23 @@
         <v>456</v>
       </c>
       <c r="C146" t="s">
-        <v>953</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>596</v>
+        <v>949</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>133</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s">
         <v>135</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="D147" s="8" t="s">
+      <c r="C147" t="s">
+        <v>962</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5533,8 +5549,8 @@
       <c r="C148" t="s">
         <v>376</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>590</v>
+      <c r="D148" s="2" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5545,79 +5561,79 @@
         <v>458</v>
       </c>
       <c r="C149" t="s">
-        <v>838</v>
-      </c>
-      <c r="D149" s="8" t="s">
-        <v>597</v>
+        <v>834</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B150" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C150" t="s">
-        <v>839</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>903</v>
+        <v>835</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>77</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>7</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" t="s">
         <v>167</v>
       </c>
-      <c r="D151" s="8" t="s">
+      <c r="D151" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" t="s">
         <v>344</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" t="s">
         <v>342</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" t="s">
         <v>343</v>
       </c>
-      <c r="D152" s="8" t="s">
-        <v>557</v>
+      <c r="D152" s="2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>904</v>
+      <c r="A153" t="s">
+        <v>863</v>
+      </c>
+      <c r="B153" t="s">
+        <v>864</v>
+      </c>
+      <c r="C153" t="s">
+        <v>865</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>99</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s">
         <v>11</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" t="s">
         <v>206</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="2" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5628,10 +5644,10 @@
       <c r="B155" t="s">
         <v>428</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" t="s">
         <v>429</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="D155" s="2" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5642,11 +5658,11 @@
       <c r="B156" t="s">
         <v>484</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>905</v>
+      <c r="C156" t="s">
+        <v>836</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5656,10 +5672,10 @@
       <c r="B157" t="s">
         <v>146</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" t="s">
         <v>169</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="D157" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5670,10 +5686,10 @@
       <c r="B158" t="s">
         <v>58</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" t="s">
         <v>170</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="D158" s="2" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5687,21 +5703,21 @@
       <c r="C159" t="s">
         <v>439</v>
       </c>
-      <c r="D159" s="8" t="s">
-        <v>906</v>
+      <c r="D159" s="2" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="A160" t="s">
+        <v>612</v>
+      </c>
+      <c r="B160" t="s">
         <v>5</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" t="s">
         <v>160</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="D160" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5713,24 +5729,24 @@
         <v>352</v>
       </c>
       <c r="C161" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D161" s="8" t="s">
-        <v>587</v>
+        <v>997</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="A162" t="s">
         <v>306</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
         <v>307</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" t="s">
         <v>308</v>
       </c>
-      <c r="D162" s="8" t="s">
-        <v>552</v>
+      <c r="D162" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5740,38 +5756,38 @@
       <c r="B163" t="s">
         <v>33</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" t="s">
         <v>33</v>
       </c>
-      <c r="D163" s="8" t="s">
+      <c r="D163" s="2" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B164" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C164" t="s">
-        <v>876</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>875</v>
+        <v>872</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>148</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" t="s">
         <v>148</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" t="s">
         <v>148</v>
       </c>
-      <c r="D165" s="8" t="s">
+      <c r="D165" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5782,25 +5798,25 @@
       <c r="B166" t="s">
         <v>149</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" t="s">
         <v>149</v>
       </c>
-      <c r="D166" s="8" t="s">
-        <v>632</v>
+      <c r="D166" s="2" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B167" t="s">
-        <v>663</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>665</v>
+        <v>659</v>
+      </c>
+      <c r="C167" t="s">
+        <v>660</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,39 +5826,39 @@
       <c r="B168" t="s">
         <v>357</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" t="s">
         <v>356</v>
       </c>
-      <c r="D168" s="8" t="s">
-        <v>572</v>
+      <c r="D168" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>81</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s">
         <v>82</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" t="s">
         <v>166</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B170" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C170" t="s">
-        <v>748</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>907</v>
+        <v>744</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5855,7 +5871,7 @@
       <c r="C171" t="s">
         <v>175</v>
       </c>
-      <c r="D171" s="8" t="s">
+      <c r="D171" s="2" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5869,36 +5885,36 @@
       <c r="C172" t="s">
         <v>176</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="2" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>70</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s">
         <v>72</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" t="s">
         <v>162</v>
       </c>
-      <c r="D173" s="8" t="s">
-        <v>628</v>
+      <c r="D173" s="2" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B174" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C174" t="s">
-        <v>749</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>908</v>
+        <v>745</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5911,91 +5927,91 @@
       <c r="C175" t="s">
         <v>288</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="2" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>68</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s">
         <v>4</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" t="s">
         <v>159</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="D176" s="2" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="A177" t="s">
         <v>114</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" t="s">
         <v>115</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" t="s">
         <v>204</v>
       </c>
-      <c r="D177" s="8" t="s">
+      <c r="D177" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="A178" t="s">
         <v>361</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" t="s">
         <v>362</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" t="s">
         <v>363</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D178" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>656</v>
+      <c r="A179" t="s">
+        <v>652</v>
       </c>
       <c r="B179" t="s">
-        <v>645</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>909</v>
+        <v>641</v>
+      </c>
+      <c r="C179" t="s">
+        <v>642</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="B180" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C180" t="s">
-        <v>779</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>778</v>
+        <v>775</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
+      <c r="A181" t="s">
         <v>125</v>
       </c>
       <c r="B181" t="s">
         <v>124</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" t="s">
         <v>209</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="D181" s="2" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6009,22 +6025,22 @@
       <c r="C182" t="s">
         <v>218</v>
       </c>
-      <c r="D182" s="8" t="s">
-        <v>627</v>
+      <c r="D182" s="2" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>644</v>
+      </c>
+      <c r="B183" t="s">
+        <v>646</v>
+      </c>
+      <c r="C183" t="s">
         <v>648</v>
       </c>
-      <c r="B183" t="s">
+      <c r="D183" s="3" t="s">
         <v>650</v>
-      </c>
-      <c r="C183" t="s">
-        <v>652</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -6037,7 +6053,7 @@
       <c r="C184" t="s">
         <v>221</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D184" s="2" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6051,22 +6067,22 @@
       <c r="C185" t="s">
         <v>220</v>
       </c>
-      <c r="D185" s="8" t="s">
+      <c r="D185" s="2" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B186" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C186" t="s">
-        <v>841</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>666</v>
+        <v>837</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -6079,36 +6095,36 @@
       <c r="C187" t="s">
         <v>222</v>
       </c>
-      <c r="D187" s="8" t="s">
+      <c r="D187" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>645</v>
+      </c>
+      <c r="B188" t="s">
+        <v>647</v>
+      </c>
+      <c r="C188" t="s">
         <v>649</v>
       </c>
-      <c r="B188" t="s">
+      <c r="D188" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="C188" t="s">
-        <v>653</v>
-      </c>
-      <c r="D188" s="11" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B189" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C189" t="s">
-        <v>842</v>
-      </c>
-      <c r="D189" s="12" t="s">
-        <v>910</v>
+        <v>838</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -6121,8 +6137,8 @@
       <c r="C190" t="s">
         <v>476</v>
       </c>
-      <c r="D190" s="8" t="s">
-        <v>634</v>
+      <c r="D190" s="2" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,7 +6151,7 @@
       <c r="C191" t="s">
         <v>173</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="D191" s="2" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6146,10 +6162,10 @@
       <c r="B192" t="s">
         <v>86</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" t="s">
         <v>178</v>
       </c>
-      <c r="D192" s="8" t="s">
+      <c r="D192" s="2" t="s">
         <v>237</v>
       </c>
     </row>
@@ -6160,25 +6176,25 @@
       <c r="B193" t="s">
         <v>425</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" t="s">
         <v>426</v>
       </c>
-      <c r="D193" s="8" t="s">
-        <v>558</v>
+      <c r="D193" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>301</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" t="s">
         <v>302</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" t="s">
         <v>303</v>
       </c>
-      <c r="D194" s="8" t="s">
-        <v>558</v>
+      <c r="D194" s="2" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -6188,1080 +6204,1108 @@
       <c r="B195" t="s">
         <v>35</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" t="s">
         <v>200</v>
       </c>
-      <c r="D195" s="8" t="s">
-        <v>911</v>
+      <c r="D195" s="2" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="A196" t="s">
         <v>358</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" t="s">
         <v>360</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" t="s">
         <v>359</v>
       </c>
-      <c r="D196" s="8" t="s">
-        <v>644</v>
+      <c r="D196" s="2" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>733</v>
+      <c r="A197" t="s">
+        <v>726</v>
+      </c>
+      <c r="B197" t="s">
+        <v>727</v>
+      </c>
+      <c r="C197" t="s">
+        <v>728</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>546</v>
+        <v>998</v>
       </c>
       <c r="B198" t="s">
-        <v>545</v>
+        <v>1009</v>
       </c>
       <c r="C198" t="s">
-        <v>671</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>602</v>
+        <v>1003</v>
+      </c>
+      <c r="D198" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>414</v>
+        <v>1001</v>
       </c>
       <c r="B199" t="s">
-        <v>415</v>
+        <v>1002</v>
       </c>
       <c r="C199" t="s">
-        <v>350</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>584</v>
+        <v>1004</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>545</v>
       </c>
       <c r="B200" t="s">
-        <v>347</v>
+        <v>1005</v>
       </c>
       <c r="C200" t="s">
-        <v>351</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>585</v>
+        <v>667</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>547</v>
+        <v>414</v>
       </c>
       <c r="B201" t="s">
-        <v>550</v>
+        <v>415</v>
       </c>
       <c r="C201" t="s">
-        <v>549</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>603</v>
+        <v>350</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="B202" t="s">
-        <v>411</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D202" s="8" t="s">
-        <v>577</v>
+        <v>347</v>
+      </c>
+      <c r="C202" t="s">
+        <v>351</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>546</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>411</v>
+      </c>
+      <c r="B204" t="s">
+        <v>411</v>
+      </c>
+      <c r="C204" t="s">
+        <v>412</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>508</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B205" t="s">
         <v>509</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C205" t="s">
         <v>536</v>
       </c>
-      <c r="D203" s="8" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B204" t="s">
-        <v>127</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="B205" t="s">
-        <v>866</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>866</v>
+      <c r="D205" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>739</v>
+        <v>126</v>
       </c>
       <c r="B206" t="s">
-        <v>740</v>
+        <v>127</v>
       </c>
       <c r="C206" t="s">
-        <v>845</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>912</v>
+        <v>839</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
-        <v>785</v>
+      <c r="A207" t="s">
+        <v>861</v>
       </c>
       <c r="B207" t="s">
-        <v>786</v>
+        <v>862</v>
       </c>
       <c r="C207" t="s">
-        <v>844</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>913</v>
+        <v>673</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>675</v>
+        <v>735</v>
       </c>
       <c r="B208" t="s">
-        <v>676</v>
+        <v>736</v>
       </c>
       <c r="C208" t="s">
-        <v>864</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>914</v>
+        <v>841</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>734</v>
+        <v>781</v>
       </c>
       <c r="B209" t="s">
-        <v>735</v>
+        <v>782</v>
       </c>
       <c r="C209" t="s">
-        <v>736</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>915</v>
+        <v>840</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>554</v>
+      <c r="A210" t="s">
+        <v>671</v>
+      </c>
+      <c r="B210" t="s">
+        <v>672</v>
+      </c>
+      <c r="C210" t="s">
+        <v>860</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>41</v>
+        <v>730</v>
       </c>
       <c r="B211" t="s">
-        <v>43</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>916</v>
+        <v>731</v>
+      </c>
+      <c r="C211" t="s">
+        <v>732</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>710</v>
+        <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>712</v>
+        <v>289</v>
       </c>
       <c r="C212" t="s">
-        <v>775</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>917</v>
+        <v>291</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>711</v>
+        <v>41</v>
       </c>
       <c r="B213" t="s">
-        <v>713</v>
+        <v>43</v>
       </c>
       <c r="C213" t="s">
-        <v>776</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>918</v>
+        <v>192</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>745</v>
+        <v>706</v>
       </c>
       <c r="B214" t="s">
-        <v>746</v>
+        <v>708</v>
       </c>
       <c r="C214" t="s">
-        <v>755</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>919</v>
+        <v>771</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>502</v>
+        <v>707</v>
       </c>
       <c r="B215" t="s">
-        <v>501</v>
+        <v>709</v>
       </c>
       <c r="C215" t="s">
-        <v>529</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>610</v>
+        <v>772</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>513</v>
+        <v>741</v>
       </c>
       <c r="B216" t="s">
-        <v>512</v>
+        <v>742</v>
       </c>
       <c r="C216" t="s">
-        <v>532</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>611</v>
+        <v>751</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="B217" t="s">
-        <v>615</v>
+        <v>501</v>
       </c>
       <c r="C217" t="s">
-        <v>486</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>642</v>
+        <v>529</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>334</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>333</v>
+        <v>513</v>
+      </c>
+      <c r="B218" t="s">
+        <v>512</v>
       </c>
       <c r="C218" t="s">
-        <v>335</v>
-      </c>
-      <c r="D218" s="8" t="s">
-        <v>641</v>
+        <v>532</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>287</v>
+        <v>485</v>
       </c>
       <c r="B219" t="s">
-        <v>286</v>
+        <v>611</v>
       </c>
       <c r="C219" t="s">
-        <v>309</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>920</v>
+        <v>486</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B220" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="C220" t="s">
-        <v>312</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>921</v>
+        <v>335</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>495</v>
+        <v>287</v>
       </c>
       <c r="B221" t="s">
-        <v>494</v>
+        <v>286</v>
       </c>
       <c r="C221" t="s">
-        <v>528</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>643</v>
+        <v>309</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="3" t="s">
-        <v>341</v>
+      <c r="A222" t="s">
+        <v>310</v>
       </c>
       <c r="B222" t="s">
-        <v>117</v>
+        <v>311</v>
       </c>
       <c r="C222" t="s">
-        <v>284</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>638</v>
+        <v>312</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="B223" t="s">
-        <v>535</v>
+        <v>494</v>
       </c>
       <c r="C223" t="s">
-        <v>534</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>613</v>
+        <v>528</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>507</v>
+        <v>341</v>
       </c>
       <c r="B224" t="s">
-        <v>531</v>
+        <v>117</v>
       </c>
       <c r="C224" t="s">
-        <v>530</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>922</v>
+        <v>284</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
       <c r="B225" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="C225" t="s">
-        <v>487</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>606</v>
+        <v>534</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>660</v>
+        <v>507</v>
       </c>
       <c r="B226" t="s">
-        <v>661</v>
+        <v>531</v>
       </c>
       <c r="C226" t="s">
-        <v>662</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>923</v>
+        <v>530</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>338</v>
+        <v>481</v>
       </c>
       <c r="B227" t="s">
-        <v>345</v>
+        <v>482</v>
       </c>
       <c r="C227" t="s">
-        <v>346</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>605</v>
+        <v>487</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>489</v>
+        <v>656</v>
       </c>
       <c r="B228" t="s">
-        <v>488</v>
+        <v>657</v>
       </c>
       <c r="C228" t="s">
-        <v>525</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>607</v>
+        <v>658</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B229" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C229" t="s">
-        <v>336</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>924</v>
+        <v>346</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>340</v>
+        <v>489</v>
       </c>
       <c r="B230" t="s">
-        <v>337</v>
+        <v>488</v>
       </c>
       <c r="C230" t="s">
-        <v>339</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>604</v>
+        <v>525</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>496</v>
+        <v>319</v>
       </c>
       <c r="B231" t="s">
-        <v>499</v>
+        <v>318</v>
       </c>
       <c r="C231" t="s">
-        <v>497</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>640</v>
+        <v>336</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B232" t="s">
-        <v>500</v>
+        <v>337</v>
       </c>
       <c r="C232" t="s">
-        <v>498</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>639</v>
+        <v>339</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>637</v>
+      <c r="A233" t="s">
+        <v>496</v>
+      </c>
+      <c r="B233" t="s">
+        <v>499</v>
+      </c>
+      <c r="C233" t="s">
+        <v>497</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>491</v>
+        <v>320</v>
       </c>
       <c r="B234" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C234" t="s">
-        <v>526</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>608</v>
+        <v>498</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>493</v>
+        <v>285</v>
       </c>
       <c r="B235" t="s">
-        <v>492</v>
+        <v>116</v>
       </c>
       <c r="C235" t="s">
-        <v>527</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>609</v>
+        <v>283</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="B236" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C236" t="s">
-        <v>533</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>612</v>
+        <v>526</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>802</v>
+        <v>493</v>
       </c>
       <c r="B237" t="s">
-        <v>803</v>
+        <v>492</v>
       </c>
       <c r="C237" t="s">
-        <v>971</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>925</v>
+        <v>527</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>787</v>
+        <v>515</v>
       </c>
       <c r="B238" t="s">
-        <v>873</v>
+        <v>514</v>
       </c>
       <c r="C238" t="s">
-        <v>847</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>926</v>
+        <v>533</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="B239" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="C239" t="s">
-        <v>848</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>927</v>
+        <v>967</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B240" t="s">
-        <v>814</v>
+        <v>869</v>
       </c>
       <c r="C240" t="s">
-        <v>849</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>928</v>
+        <v>843</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B241" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="C241" t="s">
-        <v>850</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>929</v>
+        <v>844</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B242" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C242" t="s">
-        <v>851</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>930</v>
+        <v>845</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B243" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
       <c r="C243" t="s">
-        <v>852</v>
-      </c>
-      <c r="D243" s="13" t="s">
-        <v>972</v>
+        <v>846</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B244" t="s">
-        <v>853</v>
+        <v>811</v>
       </c>
       <c r="C244" t="s">
-        <v>854</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>931</v>
+        <v>847</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B245" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="C245" t="s">
-        <v>855</v>
-      </c>
-      <c r="D245" s="13" t="s">
-        <v>932</v>
+        <v>848</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B246" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="C246" t="s">
-        <v>856</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>933</v>
+        <v>850</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B247" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C247" t="s">
-        <v>857</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>934</v>
+        <v>851</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B248" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C248" t="s">
-        <v>858</v>
-      </c>
-      <c r="D248" s="13" t="s">
-        <v>935</v>
+        <v>852</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B249" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="C249" t="s">
-        <v>859</v>
-      </c>
-      <c r="D249" s="13" t="s">
-        <v>936</v>
+        <v>853</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B250" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="C250" t="s">
-        <v>860</v>
-      </c>
-      <c r="D250" s="13" t="s">
-        <v>937</v>
+        <v>854</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B251" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C251" t="s">
-        <v>861</v>
-      </c>
-      <c r="D251" s="13" t="s">
-        <v>938</v>
+        <v>855</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B252" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="C252" t="s">
-        <v>862</v>
-      </c>
-      <c r="D252" s="13" t="s">
-        <v>939</v>
+        <v>856</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B253" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C253" t="s">
-        <v>863</v>
-      </c>
-      <c r="D253" s="13" t="s">
-        <v>940</v>
+        <v>857</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="B254" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="C254" t="s">
-        <v>981</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>941</v>
+        <v>858</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B255" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C255" t="s">
-        <v>954</v>
-      </c>
-      <c r="D255" s="13" t="s">
-        <v>942</v>
+        <v>859</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B256" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="C256" t="s">
-        <v>965</v>
-      </c>
-      <c r="D256" s="13" t="s">
-        <v>943</v>
+        <v>977</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B257" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C257" t="s">
-        <v>963</v>
-      </c>
-      <c r="D257" s="8" t="s">
-        <v>964</v>
+        <v>950</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B258" t="s">
-        <v>955</v>
+        <v>824</v>
       </c>
       <c r="C258" t="s">
-        <v>956</v>
-      </c>
-      <c r="D258" s="8" t="s">
-        <v>957</v>
+        <v>961</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B259" t="s">
-        <v>958</v>
+        <v>825</v>
       </c>
       <c r="C259" t="s">
         <v>959</v>
       </c>
-      <c r="D259" s="8" t="s">
-        <v>944</v>
+      <c r="D259" s="2" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B260" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="C260" t="s">
-        <v>960</v>
-      </c>
-      <c r="D260" s="8" t="s">
-        <v>945</v>
+        <v>952</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B261" t="s">
-        <v>830</v>
+        <v>954</v>
       </c>
       <c r="C261" t="s">
-        <v>962</v>
-      </c>
-      <c r="D261" s="8" t="s">
-        <v>946</v>
+        <v>955</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>976</v>
+        <v>807</v>
       </c>
       <c r="B262" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="C262" t="s">
-        <v>984</v>
-      </c>
-      <c r="D262" s="15" t="s">
-        <v>983</v>
+        <v>956</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>977</v>
+        <v>808</v>
       </c>
       <c r="B263" t="s">
-        <v>978</v>
+        <v>826</v>
       </c>
       <c r="C263" t="s">
-        <v>979</v>
-      </c>
-      <c r="D263" s="8" t="s">
-        <v>941</v>
+        <v>958</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>741</v>
+        <v>972</v>
       </c>
       <c r="B264" t="s">
-        <v>762</v>
+        <v>976</v>
       </c>
       <c r="C264" t="s">
-        <v>763</v>
-      </c>
-      <c r="D264" s="8" t="s">
-        <v>982</v>
+        <v>980</v>
+      </c>
+      <c r="D264" s="7" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>717</v>
+        <v>973</v>
       </c>
       <c r="B265" t="s">
-        <v>718</v>
+        <v>974</v>
       </c>
       <c r="C265" t="s">
-        <v>719</v>
-      </c>
-      <c r="D265" s="8" t="s">
-        <v>947</v>
+        <v>975</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="B266" t="s">
-        <v>721</v>
+        <v>758</v>
       </c>
       <c r="C266" t="s">
-        <v>722</v>
-      </c>
-      <c r="D266" s="8" t="s">
-        <v>948</v>
+        <v>759</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B267" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C267" t="s">
-        <v>724</v>
-      </c>
-      <c r="D267" s="8" t="s">
-        <v>949</v>
+        <v>715</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B268" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="C268" t="s">
-        <v>727</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>950</v>
+        <v>718</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B269" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C269" t="s">
-        <v>726</v>
-      </c>
-      <c r="D269" s="8" t="s">
-        <v>951</v>
+        <v>720</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>985</v>
+        <v>721</v>
       </c>
       <c r="B270" t="s">
-        <v>986</v>
+        <v>722</v>
       </c>
       <c r="C270" t="s">
-        <v>987</v>
-      </c>
-      <c r="D270" s="8" t="s">
-        <v>988</v>
+        <v>723</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>759</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>760</v>
+        <v>724</v>
+      </c>
+      <c r="B271" t="s">
+        <v>725</v>
       </c>
       <c r="C271" t="s">
-        <v>761</v>
-      </c>
-      <c r="D271" s="14" t="s">
-        <v>952</v>
+        <v>722</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>981</v>
+      </c>
+      <c r="B272" t="s">
+        <v>982</v>
+      </c>
+      <c r="C272" t="s">
+        <v>983</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>755</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C273" t="s">
+        <v>757</v>
+      </c>
+      <c r="D273" s="6" t="s">
+        <v>948</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D211">
-    <sortCondition ref="A211"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D213">
+    <sortCondition ref="A213"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
